--- a/templates/NHWA_Module_4.xlsx
+++ b/templates/NHWA_Module_4.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314A821-8F72-45AA-8FF9-EADE730DFA96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB869F0F-80FC-4761-AA3C-8AB3DDA1DE68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kJpbPdv3VXwiW4mW24e4Dcs7ERib884M9ASxhUSAaPZWg8QdDkhdrbzpLspRzLvDk3+kcuxNboiZ4Yurmbs8+w==" workbookSaltValue="o1Q3IOmNfHgUyE6fE82NdA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2832,16 +2833,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2864,6 +2855,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2880,6 +2881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2919,9 +2923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3442,16 +3443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3482,16 +3483,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>777</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3590,7 +3591,7 @@
       <c r="E4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34" t="str">
+      <c r="F4" s="36" t="str">
         <f>IFERROR(VLOOKUP(V1,Y2:AB250,4,0),"")</f>
         <v/>
       </c>
@@ -3680,8 +3681,8 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="Y6" s="4" t="s">
         <v>15</v>
       </c>
@@ -3708,20 +3709,20 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="46" t="s">
         <v>768</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="N7" s="27"/>
@@ -3757,9 +3758,9 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="24" t="s">
         <v>769</v>
       </c>
@@ -3894,12 +3895,12 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="N11" s="14"/>
@@ -3935,12 +3936,12 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="N12" s="14"/>
@@ -3976,20 +3977,20 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>765</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="37" t="s">
         <v>766</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="40" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="37" t="s">
         <v>767</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="39"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4019,12 +4020,12 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="39"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4063,10 +4064,10 @@
       <c r="C15" s="35" t="s">
         <v>776</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -10255,8 +10256,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IHA4Esbo4LH09GlupSwPsAmNVDSdSVP6WFsZ6IHDgWHAkHf1WDETkNKY2lpz/QH6SeEvmLCNc5UDpmvbKLNJBQ==" saltValue="3WZoWzpnDSlFPWEm7CU8nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QOvv43evFXFWMrWy9L+n3cuguz7+Pohqu5fqu7Li8cPfkKkS5chqWg3i0HcecDbB5VO6/K1WakokRbDPC4hLEw==" saltValue="cMOerV8+G5edq4BsdQbJoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="F13:G14"/>
     <mergeCell ref="D15:G15"/>
@@ -10264,12 +10271,6 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -10366,36 +10367,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="11" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
@@ -10617,15 +10618,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -10635,15 +10636,15 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -10738,11 +10739,11 @@
     <row r="7" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="66"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="54" t="s">
         <v>762</v>
       </c>
       <c r="G7" s="47"/>
@@ -10994,36 +10995,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="4" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
@@ -11074,46 +11075,46 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="55" t="s">
         <v>790</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="51" t="s">
         <v>768</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="N9" s="4" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="52"/>
       <c r="E10" s="31" t="s">
         <v>769</v>

--- a/templates/NHWA_Module_4.xlsx
+++ b/templates/NHWA_Module_4.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20350"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\EyeSeeTea\excel-data-import-app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB869F0F-80FC-4761-AA3C-8AB3DDA1DE68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kJpbPdv3VXwiW4mW24e4Dcs7ERib884M9ASxhUSAaPZWg8QdDkhdrbzpLspRzLvDk3+kcuxNboiZ4Yurmbs8+w==" workbookSaltValue="o1Q3IOmNfHgUyE6fE82NdA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="dropdownlist">Finance!$AE$2:INDEX(Finance!$AE$2:$AE$250,MAX(Finance!$AD$2:$AD$250),1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2327,12 +2326,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Pre-service Training</t>
-  </si>
-  <si>
-    <t>In-service training</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -2434,12 +2427,18 @@
   </si>
   <si>
     <t>Total expenditure on health workforce pre-service education (4-02)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2533,7 +2532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2593,24 +2592,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2734,7 +2715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2829,25 +2810,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2858,12 +2823,52 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2883,69 +2888,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Comma 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="flashing" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Comma [0] 3" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 4" xfId="7"/>
+    <cellStyle name="Comma 5" xfId="2"/>
+    <cellStyle name="flashing" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 3 2" xfId="11"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 4 2" xfId="13"/>
+    <cellStyle name="Normal 5" xfId="14"/>
+    <cellStyle name="Normal 6" xfId="15"/>
+    <cellStyle name="Normal 7" xfId="16"/>
+    <cellStyle name="Normal 8" xfId="17"/>
+    <cellStyle name="tgl" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2975,13 +2986,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>713014</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>277586</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>10886</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3032,16 +3043,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>620486</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>179614</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>963386</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
+          <xdr:rowOff>478971</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3090,7 +3101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3165,23 +3176,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3217,23 +3211,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3409,50 +3386,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BZ250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="4"/>
+    <col min="2" max="2" width="10.84375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.53515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.53515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3046875" style="4" customWidth="1"/>
+    <col min="11" max="15" width="9.15234375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.53515625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.3046875" style="4" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="32" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="4"/>
+    <col min="20" max="20" width="12.15234375" style="4" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.69140625" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.84375" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="33" width="9.15234375" style="4" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3465,7 +3442,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -3482,17 +3459,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>777</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+    <row r="2" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3535,7 +3512,7 @@
         <v>Algeria</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3584,14 +3561,14 @@
         <v>Angola</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" s="35" t="str">
         <f>IFERROR(VLOOKUP(V1,Y2:AB250,4,0),"")</f>
         <v/>
       </c>
@@ -3624,7 +3601,7 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="2"/>
@@ -3667,7 +3644,7 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B6" s="23"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -3681,8 +3658,8 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
       <c r="Y6" s="4" t="s">
         <v>15</v>
       </c>
@@ -3708,21 +3685,21 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>768</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="N7" s="27"/>
@@ -3757,18 +3734,18 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
+    <row r="8" spans="2:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>769</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>771</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -3804,12 +3781,12 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="21">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>775</v>
+      <c r="C9" s="74" t="s">
+        <v>773</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -3849,12 +3826,12 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>800</v>
+      <c r="C10" s="74" t="s">
+        <v>798</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -3894,13 +3871,13 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+    <row r="11" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="N11" s="14"/>
@@ -3935,13 +3912,13 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+    <row r="12" spans="2:31" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="N12" s="14"/>
@@ -3976,21 +3953,21 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="2:31" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>766</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37" t="s">
-        <v>767</v>
-      </c>
-      <c r="G13" s="39"/>
+      <c r="D13" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="G13" s="50"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4019,13 +3996,13 @@
         <v>Congo</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="39"/>
+    <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="51"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4057,22 +4034,22 @@
         <v>Cote d'Ivoire</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" ht="47.6" x14ac:dyDescent="0.45">
       <c r="B15" s="21">
         <v>1</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>776</v>
+      <c r="C15" s="75" t="s">
+        <v>774</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="V15" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>20</v>
@@ -4099,7 +4076,7 @@
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
       <c r="V16" s="4" t="s">
         <v>764</v>
       </c>
@@ -4128,12 +4105,12 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="17" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Q17" s="4" t="s">
         <v>763</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>764</v>
@@ -4166,7 +4143,8 @@
         <v>Eritrea</v>
       </c>
     </row>
-    <row r="18" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:31" x14ac:dyDescent="0.4">
+      <c r="F18" s="36"/>
       <c r="Q18" s="4" t="str">
         <f>IF(V17=2,"True","")</f>
         <v/>
@@ -4204,7 +4182,7 @@
         <v>Ethiopia</v>
       </c>
     </row>
-    <row r="19" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y19" s="4" t="s">
         <v>24</v>
       </c>
@@ -4230,7 +4208,7 @@
         <v>Gabon</v>
       </c>
     </row>
-    <row r="20" spans="17:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y20" s="4" t="s">
         <v>25</v>
       </c>
@@ -4256,7 +4234,7 @@
         <v>Gambia</v>
       </c>
     </row>
-    <row r="21" spans="17:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y21" s="4" t="s">
         <v>26</v>
       </c>
@@ -4282,7 +4260,7 @@
         <v>Ghana</v>
       </c>
     </row>
-    <row r="22" spans="17:31" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:31" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y22" s="4" t="s">
         <v>27</v>
       </c>
@@ -4308,7 +4286,7 @@
         <v>Guinea</v>
       </c>
     </row>
-    <row r="23" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y23" s="4" t="s">
         <v>28</v>
       </c>
@@ -4334,7 +4312,7 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="24" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y24" s="4" t="s">
         <v>29</v>
       </c>
@@ -4360,7 +4338,7 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="25" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y25" s="4" t="s">
         <v>30</v>
       </c>
@@ -4386,7 +4364,7 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="26" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y26" s="4" t="s">
         <v>31</v>
       </c>
@@ -4412,7 +4390,7 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="27" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y27" s="4" t="s">
         <v>32</v>
       </c>
@@ -4438,7 +4416,7 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="28" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y28" s="4" t="s">
         <v>33</v>
       </c>
@@ -4464,7 +4442,7 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="29" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y29" s="4" t="s">
         <v>34</v>
       </c>
@@ -4490,7 +4468,7 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="30" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y30" s="4" t="s">
         <v>35</v>
       </c>
@@ -4516,7 +4494,7 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="31" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y31" s="4" t="s">
         <v>36</v>
       </c>
@@ -4542,7 +4520,7 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="32" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:31" x14ac:dyDescent="0.4">
       <c r="Y32" s="4" t="s">
         <v>37</v>
       </c>
@@ -4568,7 +4546,7 @@
         <v>Mozambique</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y33" s="4" t="s">
         <v>38</v>
       </c>
@@ -4594,7 +4572,7 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y34" s="4" t="s">
         <v>39</v>
       </c>
@@ -4620,7 +4598,7 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y35" s="4" t="s">
         <v>40</v>
       </c>
@@ -4646,7 +4624,7 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y36" s="4" t="s">
         <v>41</v>
       </c>
@@ -4672,7 +4650,7 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y37" s="4" t="s">
         <v>42</v>
       </c>
@@ -4698,7 +4676,7 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y38" s="4" t="s">
         <v>43</v>
       </c>
@@ -4724,7 +4702,7 @@
         <v>Senegal</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y39" s="4" t="s">
         <v>44</v>
       </c>
@@ -4750,7 +4728,7 @@
         <v>Seychelles</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y40" s="4" t="s">
         <v>45</v>
       </c>
@@ -4776,7 +4754,7 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y41" s="4" t="s">
         <v>46</v>
       </c>
@@ -4802,7 +4780,7 @@
         <v>South Africa</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y42" s="4" t="s">
         <v>282</v>
       </c>
@@ -4828,7 +4806,7 @@
         <v>South Sudan</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y43" s="4" t="s">
         <v>47</v>
       </c>
@@ -4854,7 +4832,7 @@
         <v>Swaziland</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y44" s="4" t="s">
         <v>48</v>
       </c>
@@ -4880,7 +4858,7 @@
         <v>Togo</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y45" s="4" t="s">
         <v>49</v>
       </c>
@@ -4906,7 +4884,7 @@
         <v>Uganda</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y46" s="4" t="s">
         <v>50</v>
       </c>
@@ -4932,7 +4910,7 @@
         <v>United Republic of Tanzania</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y47" s="4" t="s">
         <v>51</v>
       </c>
@@ -4958,7 +4936,7 @@
         <v>Zambia</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y48" s="4" t="s">
         <v>52</v>
       </c>
@@ -4984,7 +4962,7 @@
         <v>Zimbabwe</v>
       </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y49" s="4" t="s">
         <v>53</v>
       </c>
@@ -5010,7 +4988,7 @@
         <v>Antigua and Barbuda</v>
       </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y50" s="4" t="s">
         <v>54</v>
       </c>
@@ -5036,7 +5014,7 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y51" s="4" t="s">
         <v>302</v>
       </c>
@@ -5062,7 +5040,7 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y52" s="4" t="s">
         <v>55</v>
       </c>
@@ -5088,7 +5066,7 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y53" s="4" t="s">
         <v>56</v>
       </c>
@@ -5114,7 +5092,7 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y54" s="4" t="s">
         <v>57</v>
       </c>
@@ -5140,7 +5118,7 @@
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
-    <row r="57" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5237,7 +5215,7 @@
       <c r="BY57" s="4"/>
       <c r="BZ57" s="4"/>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y58" s="4" t="s">
         <v>59</v>
       </c>
@@ -5263,7 +5241,7 @@
         <v>Colombia</v>
       </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y59" s="4" t="s">
         <v>60</v>
       </c>
@@ -5289,7 +5267,7 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y60" s="4" t="s">
         <v>61</v>
       </c>
@@ -5315,7 +5293,7 @@
         <v>Cuba</v>
       </c>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y61" s="4" t="s">
         <v>62</v>
       </c>
@@ -5341,7 +5319,7 @@
         <v>Dominica</v>
       </c>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y62" s="4" t="s">
         <v>63</v>
       </c>
@@ -5367,7 +5345,7 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y63" s="4" t="s">
         <v>64</v>
       </c>
@@ -5393,7 +5371,7 @@
         <v>Ecuador</v>
       </c>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.4">
       <c r="Y64" s="4" t="s">
         <v>65</v>
       </c>
@@ -5419,7 +5397,7 @@
         <v>El Salvador</v>
       </c>
     </row>
-    <row r="65" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y65" s="4" t="s">
         <v>66</v>
       </c>
@@ -5445,7 +5423,7 @@
         <v>Grenada</v>
       </c>
     </row>
-    <row r="66" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y66" s="4" t="s">
         <v>67</v>
       </c>
@@ -5471,7 +5449,7 @@
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="67" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y67" s="4" t="s">
         <v>68</v>
       </c>
@@ -5497,7 +5475,7 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="68" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y68" s="4" t="s">
         <v>69</v>
       </c>
@@ -5523,7 +5501,7 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="69" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y69" s="4" t="s">
         <v>70</v>
       </c>
@@ -5549,7 +5527,7 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="70" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y70" s="4" t="s">
         <v>71</v>
       </c>
@@ -5575,7 +5553,7 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="71" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y71" s="4" t="s">
         <v>72</v>
       </c>
@@ -5601,7 +5579,7 @@
         <v>Mexico</v>
       </c>
     </row>
-    <row r="72" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y72" s="4" t="s">
         <v>73</v>
       </c>
@@ -5627,7 +5605,7 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="73" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y73" s="4" t="s">
         <v>74</v>
       </c>
@@ -5653,7 +5631,7 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="74" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y74" s="4" t="s">
         <v>75</v>
       </c>
@@ -5679,7 +5657,7 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="75" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y75" s="4" t="s">
         <v>76</v>
       </c>
@@ -5705,7 +5683,7 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="76" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y76" s="4" t="s">
         <v>77</v>
       </c>
@@ -5731,7 +5709,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="77" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y77" s="4" t="s">
         <v>78</v>
       </c>
@@ -5757,7 +5735,7 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="78" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y78" s="4" t="s">
         <v>79</v>
       </c>
@@ -5783,7 +5761,7 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="79" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y79" s="4" t="s">
         <v>80</v>
       </c>
@@ -5809,7 +5787,7 @@
         <v>Suriname</v>
       </c>
     </row>
-    <row r="80" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y80" s="4" t="s">
         <v>81</v>
       </c>
@@ -5835,7 +5813,7 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="81" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y81" s="4" t="s">
         <v>82</v>
       </c>
@@ -5861,7 +5839,7 @@
         <v>United States of America</v>
       </c>
     </row>
-    <row r="82" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y82" s="4" t="s">
         <v>83</v>
       </c>
@@ -5887,7 +5865,7 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="83" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y83" s="4" t="s">
         <v>84</v>
       </c>
@@ -5913,7 +5891,7 @@
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
     </row>
-    <row r="84" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y84" s="4" t="s">
         <v>85</v>
       </c>
@@ -5939,7 +5917,7 @@
         <v>Afghanistan</v>
       </c>
     </row>
-    <row r="85" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y85" s="4" t="s">
         <v>86</v>
       </c>
@@ -5965,7 +5943,7 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="86" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y86" s="4" t="s">
         <v>87</v>
       </c>
@@ -5991,7 +5969,7 @@
         <v>Djibouti</v>
       </c>
     </row>
-    <row r="87" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y87" s="4" t="s">
         <v>88</v>
       </c>
@@ -6017,7 +5995,7 @@
         <v>Egypt</v>
       </c>
     </row>
-    <row r="88" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y88" s="4" t="s">
         <v>89</v>
       </c>
@@ -6043,7 +6021,7 @@
         <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
-    <row r="89" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y89" s="4" t="s">
         <v>90</v>
       </c>
@@ -6069,7 +6047,7 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="90" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y90" s="4" t="s">
         <v>91</v>
       </c>
@@ -6095,7 +6073,7 @@
         <v>Jordan</v>
       </c>
     </row>
-    <row r="91" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y91" s="4" t="s">
         <v>92</v>
       </c>
@@ -6121,7 +6099,7 @@
         <v>Kuwait</v>
       </c>
     </row>
-    <row r="92" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y92" s="4" t="s">
         <v>93</v>
       </c>
@@ -6147,7 +6125,7 @@
         <v>Lebanon</v>
       </c>
     </row>
-    <row r="93" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y93" s="4" t="s">
         <v>94</v>
       </c>
@@ -6173,7 +6151,7 @@
         <v>Libya</v>
       </c>
     </row>
-    <row r="94" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y94" s="4" t="s">
         <v>95</v>
       </c>
@@ -6199,7 +6177,7 @@
         <v>Morocco</v>
       </c>
     </row>
-    <row r="95" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y95" s="4" t="s">
         <v>388</v>
       </c>
@@ -6225,7 +6203,7 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="96" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y96" s="4" t="s">
         <v>96</v>
       </c>
@@ -6251,7 +6229,7 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="97" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y97" s="4" t="s">
         <v>97</v>
       </c>
@@ -6277,7 +6255,7 @@
         <v>Palestine</v>
       </c>
     </row>
-    <row r="98" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y98" s="4" t="s">
         <v>98</v>
       </c>
@@ -6303,7 +6281,7 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="99" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y99" s="4" t="s">
         <v>397</v>
       </c>
@@ -6329,7 +6307,7 @@
         <v>Saudi Arabia</v>
       </c>
     </row>
-    <row r="100" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y100" s="4" t="s">
         <v>99</v>
       </c>
@@ -6355,7 +6333,7 @@
         <v>Somalia</v>
       </c>
     </row>
-    <row r="101" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y101" s="4" t="s">
         <v>100</v>
       </c>
@@ -6381,7 +6359,7 @@
         <v>Sudan</v>
       </c>
     </row>
-    <row r="102" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y102" s="4" t="s">
         <v>101</v>
       </c>
@@ -6407,7 +6385,7 @@
         <v>Syrian Arab Republic</v>
       </c>
     </row>
-    <row r="103" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y103" s="4" t="s">
         <v>102</v>
       </c>
@@ -6433,7 +6411,7 @@
         <v>Tunisia</v>
       </c>
     </row>
-    <row r="104" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y104" s="4" t="s">
         <v>103</v>
       </c>
@@ -6459,7 +6437,7 @@
         <v>United Arab Emirates</v>
       </c>
     </row>
-    <row r="105" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y105" s="4" t="s">
         <v>104</v>
       </c>
@@ -6485,7 +6463,7 @@
         <v>Yemen</v>
       </c>
     </row>
-    <row r="106" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y106" s="4" t="s">
         <v>105</v>
       </c>
@@ -6511,7 +6489,7 @@
         <v>Albania</v>
       </c>
     </row>
-    <row r="107" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y107" s="4" t="s">
         <v>106</v>
       </c>
@@ -6537,7 +6515,7 @@
         <v>Andorra</v>
       </c>
     </row>
-    <row r="108" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y108" s="4" t="s">
         <v>107</v>
       </c>
@@ -6563,7 +6541,7 @@
         <v>Armenia</v>
       </c>
     </row>
-    <row r="109" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y109" s="4" t="s">
         <v>108</v>
       </c>
@@ -6589,7 +6567,7 @@
         <v>Austria</v>
       </c>
     </row>
-    <row r="110" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y110" s="4" t="s">
         <v>109</v>
       </c>
@@ -6615,7 +6593,7 @@
         <v>Azerbaijan</v>
       </c>
     </row>
-    <row r="111" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y111" s="4" t="s">
         <v>110</v>
       </c>
@@ -6641,7 +6619,7 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="112" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y112" s="4" t="s">
         <v>111</v>
       </c>
@@ -6667,7 +6645,7 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="113" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y113" s="4" t="s">
         <v>112</v>
       </c>
@@ -6693,7 +6671,7 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="114" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y114" s="4" t="s">
         <v>113</v>
       </c>
@@ -6719,7 +6697,7 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="115" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y115" s="4" t="s">
         <v>114</v>
       </c>
@@ -6745,7 +6723,7 @@
         <v>Croatia</v>
       </c>
     </row>
-    <row r="116" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y116" s="4" t="s">
         <v>115</v>
       </c>
@@ -6771,7 +6749,7 @@
         <v>Cyprus</v>
       </c>
     </row>
-    <row r="117" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y117" s="4" t="s">
         <v>116</v>
       </c>
@@ -6797,7 +6775,7 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="118" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y118" s="4" t="s">
         <v>117</v>
       </c>
@@ -6823,7 +6801,7 @@
         <v>Denmark</v>
       </c>
     </row>
-    <row r="119" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y119" s="4" t="s">
         <v>118</v>
       </c>
@@ -6849,7 +6827,7 @@
         <v>Estonia</v>
       </c>
     </row>
-    <row r="120" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y120" s="4" t="s">
         <v>119</v>
       </c>
@@ -6875,7 +6853,7 @@
         <v>Finland</v>
       </c>
     </row>
-    <row r="121" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y121" s="4" t="s">
         <v>120</v>
       </c>
@@ -6901,7 +6879,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="122" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y122" s="4" t="s">
         <v>121</v>
       </c>
@@ -6927,7 +6905,7 @@
         <v>Georgia</v>
       </c>
     </row>
-    <row r="123" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y123" s="4" t="s">
         <v>122</v>
       </c>
@@ -6953,7 +6931,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="124" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y124" s="4" t="s">
         <v>123</v>
       </c>
@@ -6979,7 +6957,7 @@
         <v>Greece</v>
       </c>
     </row>
-    <row r="125" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y125" s="4" t="s">
         <v>124</v>
       </c>
@@ -7005,7 +6983,7 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="126" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y126" s="4" t="s">
         <v>125</v>
       </c>
@@ -7031,7 +7009,7 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="127" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y127" s="4" t="s">
         <v>126</v>
       </c>
@@ -7057,7 +7035,7 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="128" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y128" s="4" t="s">
         <v>127</v>
       </c>
@@ -7083,7 +7061,7 @@
         <v>Israel</v>
       </c>
     </row>
-    <row r="129" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y129" s="4" t="s">
         <v>128</v>
       </c>
@@ -7109,7 +7087,7 @@
         <v>Italy</v>
       </c>
     </row>
-    <row r="130" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y130" s="4" t="s">
         <v>129</v>
       </c>
@@ -7135,7 +7113,7 @@
         <v>Kazakhstan</v>
       </c>
     </row>
-    <row r="131" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y131" s="4" t="s">
         <v>130</v>
       </c>
@@ -7161,7 +7139,7 @@
         <v>Kyrgyzstan</v>
       </c>
     </row>
-    <row r="132" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y132" s="4" t="s">
         <v>131</v>
       </c>
@@ -7187,7 +7165,7 @@
         <v>Latvia</v>
       </c>
     </row>
-    <row r="133" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y133" s="4" t="s">
         <v>132</v>
       </c>
@@ -7213,7 +7191,7 @@
         <v>Lithuania</v>
       </c>
     </row>
-    <row r="134" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y134" s="4" t="s">
         <v>133</v>
       </c>
@@ -7239,7 +7217,7 @@
         <v>Luxembourg</v>
       </c>
     </row>
-    <row r="135" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y135" s="4" t="s">
         <v>134</v>
       </c>
@@ -7265,7 +7243,7 @@
         <v>Malta</v>
       </c>
     </row>
-    <row r="136" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y136" s="4" t="s">
         <v>135</v>
       </c>
@@ -7291,7 +7269,7 @@
         <v>Monaco</v>
       </c>
     </row>
-    <row r="137" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y137" s="4" t="s">
         <v>136</v>
       </c>
@@ -7317,7 +7295,7 @@
         <v>Montenegro</v>
       </c>
     </row>
-    <row r="138" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y138" s="4" t="s">
         <v>137</v>
       </c>
@@ -7343,7 +7321,7 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="139" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y139" s="4" t="s">
         <v>138</v>
       </c>
@@ -7369,7 +7347,7 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="140" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y140" s="4" t="s">
         <v>139</v>
       </c>
@@ -7395,7 +7373,7 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="141" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y141" s="4" t="s">
         <v>140</v>
       </c>
@@ -7421,7 +7399,7 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="142" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y142" s="4" t="s">
         <v>141</v>
       </c>
@@ -7447,7 +7425,7 @@
         <v>Republic of Moldova</v>
       </c>
     </row>
-    <row r="143" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y143" s="4" t="s">
         <v>142</v>
       </c>
@@ -7473,7 +7451,7 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="144" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y144" s="4" t="s">
         <v>143</v>
       </c>
@@ -7499,7 +7477,7 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="145" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y145" s="4" t="s">
         <v>144</v>
       </c>
@@ -7525,7 +7503,7 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="146" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y146" s="4" t="s">
         <v>145</v>
       </c>
@@ -7551,7 +7529,7 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="147" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y147" s="4" t="s">
         <v>146</v>
       </c>
@@ -7577,7 +7555,7 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="148" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y148" s="4" t="s">
         <v>147</v>
       </c>
@@ -7603,7 +7581,7 @@
         <v>Slovenia</v>
       </c>
     </row>
-    <row r="149" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y149" s="4" t="s">
         <v>148</v>
       </c>
@@ -7629,7 +7607,7 @@
         <v>Spain</v>
       </c>
     </row>
-    <row r="150" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y150" s="4" t="s">
         <v>149</v>
       </c>
@@ -7655,7 +7633,7 @@
         <v>Sweden</v>
       </c>
     </row>
-    <row r="151" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y151" s="4" t="s">
         <v>150</v>
       </c>
@@ -7681,7 +7659,7 @@
         <v>Switzerland</v>
       </c>
     </row>
-    <row r="152" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y152" s="4" t="s">
         <v>151</v>
       </c>
@@ -7707,7 +7685,7 @@
         <v>Tajikistan</v>
       </c>
     </row>
-    <row r="153" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y153" s="4" t="s">
         <v>152</v>
       </c>
@@ -7733,7 +7711,7 @@
         <v>The former Yugoslav republic of Macedonia</v>
       </c>
     </row>
-    <row r="154" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y154" s="4" t="s">
         <v>153</v>
       </c>
@@ -7759,7 +7737,7 @@
         <v>Turkey</v>
       </c>
     </row>
-    <row r="155" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y155" s="4" t="s">
         <v>511</v>
       </c>
@@ -7785,7 +7763,7 @@
         <v>Turkmenistan</v>
       </c>
     </row>
-    <row r="156" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y156" s="4" t="s">
         <v>154</v>
       </c>
@@ -7811,7 +7789,7 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="157" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y157" s="4" t="s">
         <v>155</v>
       </c>
@@ -7837,7 +7815,7 @@
         <v>United Kingdom of Great Britain and Northern Ireland</v>
       </c>
     </row>
-    <row r="158" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y158" s="4" t="s">
         <v>156</v>
       </c>
@@ -7863,7 +7841,7 @@
         <v>Uzbekistan</v>
       </c>
     </row>
-    <row r="159" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y159" s="4" t="s">
         <v>520</v>
       </c>
@@ -7889,7 +7867,7 @@
         <v>American Samoa</v>
       </c>
     </row>
-    <row r="160" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y160" s="4" t="s">
         <v>157</v>
       </c>
@@ -7915,7 +7893,7 @@
         <v>Anguilla</v>
       </c>
     </row>
-    <row r="161" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y161" s="4" t="s">
         <v>525</v>
       </c>
@@ -7941,7 +7919,7 @@
         <v>Aruba</v>
       </c>
     </row>
-    <row r="162" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y162" s="4" t="s">
         <v>529</v>
       </c>
@@ -7967,7 +7945,7 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="163" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y163" s="4" t="s">
         <v>532</v>
       </c>
@@ -7993,7 +7971,7 @@
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
-    <row r="164" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y164" s="4" t="s">
         <v>535</v>
       </c>
@@ -8019,7 +7997,7 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="165" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y165" s="4" t="s">
         <v>538</v>
       </c>
@@ -8045,7 +8023,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="166" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y166" s="4" t="s">
         <v>541</v>
       </c>
@@ -8071,7 +8049,7 @@
         <v>China, Hong Kong Special Administrative Region</v>
       </c>
     </row>
-    <row r="167" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y167" s="4" t="s">
         <v>544</v>
       </c>
@@ -8097,7 +8075,7 @@
         <v>China, Macao Special Administrative Region</v>
       </c>
     </row>
-    <row r="168" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y168" s="4" t="s">
         <v>547</v>
       </c>
@@ -8123,7 +8101,7 @@
         <v>China: Province of Taiwan only</v>
       </c>
     </row>
-    <row r="169" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y169" s="4" t="s">
         <v>550</v>
       </c>
@@ -8149,7 +8127,7 @@
         <v>Curacao</v>
       </c>
     </row>
-    <row r="170" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y170" s="4" t="s">
         <v>553</v>
       </c>
@@ -8175,7 +8153,7 @@
         <v>Czechoslovakia, Former</v>
       </c>
     </row>
-    <row r="171" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y171" s="4" t="s">
         <v>556</v>
       </c>
@@ -8201,7 +8179,7 @@
         <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
-    <row r="172" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y172" s="4" t="s">
         <v>559</v>
       </c>
@@ -8227,7 +8205,7 @@
         <v>Faroe Islands</v>
       </c>
     </row>
-    <row r="173" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y173" s="4" t="s">
         <v>562</v>
       </c>
@@ -8253,7 +8231,7 @@
         <v>French Guiana</v>
       </c>
     </row>
-    <row r="174" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y174" s="4" t="s">
         <v>565</v>
       </c>
@@ -8279,7 +8257,7 @@
         <v>French Polynesia</v>
       </c>
     </row>
-    <row r="175" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y175" s="4" t="s">
         <v>568</v>
       </c>
@@ -8305,7 +8283,7 @@
         <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
-    <row r="176" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y176" s="4" t="s">
         <v>571</v>
       </c>
@@ -8331,7 +8309,7 @@
         <v>Germany, Former Federal Republic</v>
       </c>
     </row>
-    <row r="177" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y177" s="4" t="s">
         <v>574</v>
       </c>
@@ -8357,7 +8335,7 @@
         <v>Germany, West Berlin</v>
       </c>
     </row>
-    <row r="178" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y178" s="4" t="s">
         <v>577</v>
       </c>
@@ -8383,7 +8361,7 @@
         <v>Gibraltar</v>
       </c>
     </row>
-    <row r="179" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y179" s="4" t="s">
         <v>580</v>
       </c>
@@ -8409,7 +8387,7 @@
         <v>Greenland</v>
       </c>
     </row>
-    <row r="180" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y180" s="4" t="s">
         <v>583</v>
       </c>
@@ -8435,7 +8413,7 @@
         <v>Guadeloupe</v>
       </c>
     </row>
-    <row r="181" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y181" s="4" t="s">
         <v>586</v>
       </c>
@@ -8461,7 +8439,7 @@
         <v>Guam</v>
       </c>
     </row>
-    <row r="182" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y182" s="4" t="s">
         <v>589</v>
       </c>
@@ -8487,7 +8465,7 @@
         <v>Liechtenstein</v>
       </c>
     </row>
-    <row r="183" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y183" s="4" t="s">
         <v>592</v>
       </c>
@@ -8513,7 +8491,7 @@
         <v>Martinique</v>
       </c>
     </row>
-    <row r="184" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y184" s="4" t="s">
         <v>595</v>
       </c>
@@ -8539,7 +8517,7 @@
         <v>Mayotte</v>
       </c>
     </row>
-    <row r="185" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y185" s="4" t="s">
         <v>598</v>
       </c>
@@ -8565,7 +8543,7 @@
         <v>Montserrat</v>
       </c>
     </row>
-    <row r="186" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y186" s="4" t="s">
         <v>601</v>
       </c>
@@ -8591,7 +8569,7 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="187" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y187" s="4" t="s">
         <v>604</v>
       </c>
@@ -8617,7 +8595,7 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="188" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y188" s="4" t="s">
         <v>607</v>
       </c>
@@ -8643,7 +8621,7 @@
         <v>Norfolk Island</v>
       </c>
     </row>
-    <row r="189" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y189" s="4" t="s">
         <v>610</v>
       </c>
@@ -8669,7 +8647,7 @@
         <v>Northern Mariana Islands</v>
       </c>
     </row>
-    <row r="190" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y190" s="4" t="s">
         <v>613</v>
       </c>
@@ -8695,7 +8673,7 @@
         <v>Pitcairn Island</v>
       </c>
     </row>
-    <row r="191" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y191" s="4" t="s">
         <v>616</v>
       </c>
@@ -8721,7 +8699,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="192" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y192" s="4" t="s">
         <v>619</v>
       </c>
@@ -8747,7 +8725,7 @@
         <v>Rodrigues</v>
       </c>
     </row>
-    <row r="193" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y193" s="4" t="s">
         <v>622</v>
       </c>
@@ -8773,7 +8751,7 @@
         <v>Rï¿½union</v>
       </c>
     </row>
-    <row r="194" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y194" s="4" t="s">
         <v>625</v>
       </c>
@@ -8799,7 +8777,7 @@
         <v>Ryu Kyu Islands</v>
       </c>
     </row>
-    <row r="195" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y195" s="4" t="s">
         <v>628</v>
       </c>
@@ -8825,7 +8803,7 @@
         <v>Saint Helena</v>
       </c>
     </row>
-    <row r="196" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y196" s="4" t="s">
         <v>631</v>
       </c>
@@ -8851,7 +8829,7 @@
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
-    <row r="197" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y197" s="4" t="s">
         <v>634</v>
       </c>
@@ -8877,7 +8855,7 @@
         <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
-    <row r="198" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y198" s="4" t="s">
         <v>637</v>
       </c>
@@ -8903,7 +8881,7 @@
         <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
-    <row r="199" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y199" s="4" t="s">
         <v>640</v>
       </c>
@@ -8929,7 +8907,7 @@
         <v>Sudan (former)</v>
       </c>
     </row>
-    <row r="200" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y200" s="4" t="s">
         <v>643</v>
       </c>
@@ -8955,7 +8933,7 @@
         <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
-    <row r="201" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y201" s="4" t="s">
         <v>646</v>
       </c>
@@ -8981,7 +8959,7 @@
         <v>Tokelau</v>
       </c>
     </row>
-    <row r="202" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y202" s="4" t="s">
         <v>649</v>
       </c>
@@ -9007,7 +8985,7 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="203" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y203" s="4" t="s">
         <v>652</v>
       </c>
@@ -9033,7 +9011,7 @@
         <v>United Kingdom, England and Wales</v>
       </c>
     </row>
-    <row r="204" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y204" s="4" t="s">
         <v>655</v>
       </c>
@@ -9059,7 +9037,7 @@
         <v>United Kingdom, Northern Ireland</v>
       </c>
     </row>
-    <row r="205" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y205" s="4" t="s">
         <v>658</v>
       </c>
@@ -9085,7 +9063,7 @@
         <v>United Kingdom, Scotland</v>
       </c>
     </row>
-    <row r="206" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y206" s="4" t="s">
         <v>661</v>
       </c>
@@ -9111,7 +9089,7 @@
         <v>USSR, Former</v>
       </c>
     </row>
-    <row r="207" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y207" s="4" t="s">
         <v>664</v>
       </c>
@@ -9137,7 +9115,7 @@
         <v>Virgin Islands (USA)</v>
       </c>
     </row>
-    <row r="208" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y208" s="4" t="s">
         <v>667</v>
       </c>
@@ -9163,7 +9141,7 @@
         <v>Wallis and Futuna Islands</v>
       </c>
     </row>
-    <row r="209" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y209" s="4" t="s">
         <v>670</v>
       </c>
@@ -9189,7 +9167,7 @@
         <v>West Bank</v>
       </c>
     </row>
-    <row r="210" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y210" s="4" t="s">
         <v>673</v>
       </c>
@@ -9215,7 +9193,7 @@
         <v>Yugoslavia, Former</v>
       </c>
     </row>
-    <row r="211" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y211" s="4" t="s">
         <v>676</v>
       </c>
@@ -9241,7 +9219,7 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="212" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y212" s="4" t="s">
         <v>679</v>
       </c>
@@ -9267,7 +9245,7 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="213" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y213" s="4" t="s">
         <v>158</v>
       </c>
@@ -9293,7 +9271,7 @@
         <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
-    <row r="214" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y214" s="4" t="s">
         <v>159</v>
       </c>
@@ -9319,7 +9297,7 @@
         <v>India</v>
       </c>
     </row>
-    <row r="215" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y215" s="4" t="s">
         <v>160</v>
       </c>
@@ -9345,7 +9323,7 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="216" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y216" s="4" t="s">
         <v>161</v>
       </c>
@@ -9371,7 +9349,7 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="217" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y217" s="4" t="s">
         <v>162</v>
       </c>
@@ -9397,7 +9375,7 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="218" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y218" s="4" t="s">
         <v>163</v>
       </c>
@@ -9423,7 +9401,7 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="219" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y219" s="4" t="s">
         <v>164</v>
       </c>
@@ -9449,7 +9427,7 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="220" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y220" s="4" t="s">
         <v>165</v>
       </c>
@@ -9475,7 +9453,7 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="221" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y221" s="4" t="s">
         <v>166</v>
       </c>
@@ -9501,7 +9479,7 @@
         <v>Timor-Leste</v>
       </c>
     </row>
-    <row r="222" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y222" s="4" t="s">
         <v>167</v>
       </c>
@@ -9527,7 +9505,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="223" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y223" s="4" t="s">
         <v>168</v>
       </c>
@@ -9553,7 +9531,7 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="224" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y224" s="4" t="s">
         <v>169</v>
       </c>
@@ -9579,7 +9557,7 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="225" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y225" s="4" t="s">
         <v>170</v>
       </c>
@@ -9605,7 +9583,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="226" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y226" s="4" t="s">
         <v>171</v>
       </c>
@@ -9631,7 +9609,7 @@
         <v>Cook Islands</v>
       </c>
     </row>
-    <row r="227" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y227" s="4" t="s">
         <v>712</v>
       </c>
@@ -9657,7 +9635,7 @@
         <v>Fiji</v>
       </c>
     </row>
-    <row r="228" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y228" s="4" t="s">
         <v>172</v>
       </c>
@@ -9683,7 +9661,7 @@
         <v>Japan</v>
       </c>
     </row>
-    <row r="229" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y229" s="4" t="s">
         <v>173</v>
       </c>
@@ -9709,7 +9687,7 @@
         <v>Kiribati</v>
       </c>
     </row>
-    <row r="230" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y230" s="4" t="s">
         <v>174</v>
       </c>
@@ -9735,7 +9713,7 @@
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
-    <row r="231" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y231" s="4" t="s">
         <v>175</v>
       </c>
@@ -9761,7 +9739,7 @@
         <v>Malaysia</v>
       </c>
     </row>
-    <row r="232" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y232" s="4" t="s">
         <v>176</v>
       </c>
@@ -9787,7 +9765,7 @@
         <v>Marshall Islands</v>
       </c>
     </row>
-    <row r="233" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y233" s="4" t="s">
         <v>177</v>
       </c>
@@ -9813,7 +9791,7 @@
         <v>Micronesia (Federated States of)</v>
       </c>
     </row>
-    <row r="234" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y234" s="4" t="s">
         <v>178</v>
       </c>
@@ -9839,7 +9817,7 @@
         <v>Mongolia</v>
       </c>
     </row>
-    <row r="235" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y235" s="4" t="s">
         <v>179</v>
       </c>
@@ -9865,7 +9843,7 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="236" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y236" s="4" t="s">
         <v>180</v>
       </c>
@@ -9891,7 +9869,7 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="237" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y237" s="4" t="s">
         <v>181</v>
       </c>
@@ -9917,7 +9895,7 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="238" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y238" s="4" t="s">
         <v>182</v>
       </c>
@@ -9943,7 +9921,7 @@
         <v>Palau</v>
       </c>
     </row>
-    <row r="239" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y239" s="4" t="s">
         <v>183</v>
       </c>
@@ -9969,7 +9947,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="240" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y240" s="4" t="s">
         <v>739</v>
       </c>
@@ -9995,7 +9973,7 @@
         <v>Philippines</v>
       </c>
     </row>
-    <row r="241" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y241" s="4" t="s">
         <v>184</v>
       </c>
@@ -10021,7 +9999,7 @@
         <v>Republic of Korea</v>
       </c>
     </row>
-    <row r="242" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y242" s="4" t="s">
         <v>185</v>
       </c>
@@ -10047,7 +10025,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="243" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y243" s="4" t="s">
         <v>186</v>
       </c>
@@ -10073,7 +10051,7 @@
         <v>Singapore</v>
       </c>
     </row>
-    <row r="244" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y244" s="4" t="s">
         <v>187</v>
       </c>
@@ -10099,7 +10077,7 @@
         <v>Solomon Islands</v>
       </c>
     </row>
-    <row r="245" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y245" s="4" t="s">
         <v>188</v>
       </c>
@@ -10125,7 +10103,7 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="246" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y246" s="4" t="s">
         <v>189</v>
       </c>
@@ -10151,7 +10129,7 @@
         <v>Tuvalu</v>
       </c>
     </row>
-    <row r="247" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y247" s="4" t="s">
         <v>190</v>
       </c>
@@ -10177,7 +10155,7 @@
         <v>Vanuatu</v>
       </c>
     </row>
-    <row r="248" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y248" s="4" t="s">
         <v>191</v>
       </c>
@@ -10203,7 +10181,7 @@
         <v>Viet Nam</v>
       </c>
     </row>
-    <row r="249" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y249" s="4" t="s">
         <v>192</v>
       </c>
@@ -10229,7 +10207,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="25:31" x14ac:dyDescent="0.4">
       <c r="Y250" s="4" t="s">
         <v>193</v>
       </c>
@@ -10256,27 +10234,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QOvv43evFXFWMrWy9L+n3cuguz7+Pohqu5fqu7Li8cPfkKkS5chqWg3i0HcecDbB5VO6/K1WakokRbDPC4hLEw==" saltValue="cMOerV8+G5edq4BsdQbJoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="13">
+  <sheetProtection algorithmName="SHA-512" hashValue="kkgcrUNc5enmSCaWgQb/8MKXVL+Xe/lDbLJNN54ML8xg/f+fgIaEPY7w/CMhXz+P5L4TgQMkXLTtXwn3Cpd75g==" saltValue="YNiqkgimZRwsNwEU0zK5Mg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="14">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B11:G12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B11:G12"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>YEAR(TODAY())-20</formula1>
       <formula2>YEAR(TODAY())-1</formula2>
     </dataValidation>
@@ -10293,13 +10272,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>713014</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>277586</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>10886</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -10317,16 +10296,16 @@
           <controlPr defaultSize="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>620486</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>179614</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>963386</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>514350</xdr:rowOff>
+                <xdr:rowOff>478971</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -10338,7 +10317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N15"/>
   <sheetViews>
@@ -10346,63 +10325,63 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="4"/>
+    <col min="2" max="2" width="10.84375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.3828125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.15234375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="4" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" customWidth="1"/>
     <col min="7" max="7" width="24" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.84375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.15234375" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="16384" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="11" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -10417,70 +10396,70 @@
       <c r="M3" s="18"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="35" t="str">
         <f>Finance!V1</f>
         <v/>
       </c>
       <c r="E4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" s="35" t="str">
         <f>Finance!F4</f>
         <v/>
       </c>
       <c r="H4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>Finance!I4</f>
         <v>0</v>
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="L5" s="5"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L6" s="5"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>785</v>
-      </c>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="58" t="s">
+        <v>783</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>777</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>778</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="G7" s="54" t="s">
         <v>779</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>781</v>
-      </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="54"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -10496,12 +10475,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -10509,19 +10488,19 @@
       <c r="G10" s="22"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <v>4</v>
       </c>
@@ -10533,7 +10512,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -10545,7 +10524,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -10557,7 +10536,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <v>7</v>
       </c>
@@ -10582,7 +10561,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G15">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10592,7 +10571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Q51"/>
   <sheetViews>
@@ -10600,33 +10579,33 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="4" customWidth="1"/>
-    <col min="10" max="12" width="16.42578125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="18.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="43" width="9.140625" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="40.69140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.3046875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.3828125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="20.69140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.53515625" style="4" customWidth="1"/>
+    <col min="10" max="12" width="16.3828125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="18.3046875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.3828125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="9.15234375" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="43" width="9.15234375" style="4" customWidth="1"/>
+    <col min="44" max="16384" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:16" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -10635,16 +10614,16 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>773</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+    <row r="2" spans="2:16" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -10657,7 +10636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -10673,30 +10652,30 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="35" t="str">
         <f>Finance!V1</f>
         <v/>
       </c>
       <c r="E4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" s="35" t="str">
         <f>Finance!F4</f>
         <v/>
       </c>
       <c r="H4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>Finance!I4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="2"/>
@@ -10712,22 +10691,22 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>784</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>786</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="E6" s="54" t="s">
+        <v>784</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -10736,18 +10715,18 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="47" t="s">
-        <v>768</v>
-      </c>
-      <c r="F7" s="54" t="s">
+    <row r="7" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="54" t="s">
+        <v>766</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>762</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -10756,27 +10735,27 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="2:16" ht="51.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="47"/>
+    <row r="8" spans="2:16" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:16" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -10790,12 +10769,12 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -10810,12 +10789,12 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -10830,12 +10809,12 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -10850,12 +10829,12 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -10870,12 +10849,12 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <v>6</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -10890,7 +10869,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
@@ -10906,44 +10885,44 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="5:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pbnRlw/nYjj+kULKnscvcBVhseTBWKFuTsJ8jRQidx70ncdZtcbmlc1d8UGefKd2P/2T2mNrzY7A4pcCbEcG9A==" saltValue="HOROEzEUHXoWgqC7C4Hm4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="8">
@@ -10957,7 +10936,7 @@
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H14" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H14">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10967,70 +10946,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="4"/>
+    <col min="2" max="2" width="10.84375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.3828125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.84375" style="4" customWidth="1"/>
     <col min="7" max="7" width="23" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.84375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.15234375" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="16384" width="9.15234375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="2" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="4" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="22.75" x14ac:dyDescent="0.4">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -11044,89 +11023,89 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="35" t="str">
         <f>Finance!V1</f>
         <v/>
       </c>
       <c r="E4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" s="35" t="str">
         <f>Finance!F4</f>
         <v/>
       </c>
       <c r="H4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>Finance!I4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>785</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="51" t="s">
-        <v>768</v>
-      </c>
-      <c r="E9" s="61" t="s">
+      <c r="C7" s="71" t="s">
+        <v>783</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>788</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="58" t="s">
+        <v>766</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>762</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
       <c r="N9" s="4" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="52"/>
+    <row r="10" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="31" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
         <v>1</v>
       </c>
@@ -11138,31 +11117,31 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -11174,7 +11153,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -11186,7 +11165,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -11198,7 +11177,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B17" s="6">
         <v>7</v>
       </c>
@@ -11222,7 +11201,7 @@
     <mergeCell ref="C7:C10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G17" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G17">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/NHWA_Module_4.xlsx
+++ b/templates/NHWA_Module_4.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1930F3A9-2EC9-4384-8C97-F581C1DA93F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="haj4Cbed6/r1AwHDnh+HLyke+LyqX3ZWhaY7c6jINshTd1o4RMDFEE9LnRDo6lfAHDnbOy9lJvibL3SZsRqM6g==" workbookSaltValue="zFLirmJ+0Pgso8hCRJ/84w==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757726AD-D999-42DA-961A-358EC74457A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="00mPT5B+lpZTRBxmY4XFmF1Rr9DzXSm7IUbuVJNXHeAUGZ0YazotlzCz5Ixco2/eDh1PjJ25045bDVto6ntN2w==" workbookSaltValue="WkyiyUBw4enmqFgJ1ZUWXg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
     <sheet name="Cost per program" sheetId="2" r:id="rId2"/>
-    <sheet name="Specialist Costs" sheetId="4" r:id="rId3"/>
-    <sheet name="Lifelong Learning" sheetId="6" r:id="rId4"/>
+    <sheet name="Lifelong Learning" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="dropdownlist">Finance!$AE$2:INDEX(Finance!$AE$2:$AE$250,MAX(Finance!$AD$2:$AD$250),1)</definedName>
@@ -27,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="802">
-  <si>
-    <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="797">
   <si>
     <t>REGION:</t>
   </si>
@@ -2339,61 +2335,15 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Health Workforce Education Finance</t>
-  </si>
-  <si>
-    <t>Health Workforce Education Finance Source Type</t>
-  </si>
-  <si>
     <t>PARTIAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total expenditure on higher education (including for non-health sectors) (4-01)</t>
-  </si>
-  <si>
     <t>Existence of national health workforce strategies and national institutional financing reforms that identify and commit adequate budgetary resources for transformative education (4-04)</t>
   </si>
   <si>
-    <t>Health Workforce Education Finances</t>
-  </si>
-  <si>
-    <t>Tuition Fee by Student enrolled (4-03)</t>
-  </si>
-  <si>
-    <t>Public Expenditure on HWF education (4-05)</t>
-  </si>
-  <si>
-    <t>Private Expenditure on HWF education (4-05)</t>
-  </si>
-  <si>
-    <t>Recurrent costs of qualified educators (4-07)</t>
-  </si>
-  <si>
-    <t>Obstetricians and Gynaecologists Practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical group of Specialists Practitioner </t>
-  </si>
-  <si>
-    <t>Medical specialist
-education programmes</t>
-  </si>
-  <si>
     <t>HWF education and training programme</t>
   </si>
   <si>
-    <t>Total Cost per graduate in medical specialist
-education programmes (4-06)</t>
-  </si>
-  <si>
-    <t>Out of Pockets
-(OoP)</t>
-  </si>
-  <si>
-    <t>Official Development
-Assistance (ODA)</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2415,18 +2365,6 @@
     <t xml:space="preserve">    Specialist Medical Practitioners</t>
   </si>
   <si>
-    <t>General Paediatricians Practitioner</t>
-  </si>
-  <si>
-    <t>Psychiatrists Practitioner</t>
-  </si>
-  <si>
-    <t>Surgical group of Specialists Practitioner</t>
-  </si>
-  <si>
-    <t>Other Specialists Practitioner</t>
-  </si>
-  <si>
     <t>Total expenditure on health workforce pre-service education (4-02)</t>
   </si>
   <si>
@@ -2436,7 +2374,51 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Total Cost per graduate in medical specialist education programmes (4-06)</t>
+    <t>Public Expenditure</t>
+  </si>
+  <si>
+    <t>Private Expenditure</t>
+  </si>
+  <si>
+    <t>Annual expenditure on HWF education programmes (4-05/4-06)</t>
+  </si>
+  <si>
+    <t>Official Development Assistance</t>
+  </si>
+  <si>
+    <t>Health Workforce Education Finance - Report data in USD (annual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATIONAL HEALTH WORKFORCE ACCOUNTS DATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        General Paediatricians Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Obstetricians and Gynaecologists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Medical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>Recurrent costs of qualified educators
+(4-07)</t>
+  </si>
+  <si>
+    <t>Annual tuition fee by student enrolled
+(4-03)</t>
+  </si>
+  <si>
+    <t>Total expenditure on higher education (including for non-health sectors) (4-01)</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2551,19 +2533,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2593,30 +2562,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2668,7 +2613,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2706,21 +2651,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2736,18 +2669,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -2767,11 +2691,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2783,63 +2751,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3330,7 +3258,7 @@
   <dimension ref="A1:BZ250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,16 +3287,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3381,34 +3309,34 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="9" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>775</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3427,16 +3355,16 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="AC2" s="4">
         <f>--ISNUMBER(IFERROR(SEARCH($V$1,Y2,1),""))</f>
@@ -3461,31 +3389,31 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="11"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="AB3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" ref="AC3:AC67" si="0">--ISNUMBER(IFERROR(SEARCH($V$1,Y3,1),""))</f>
@@ -3502,30 +3430,30 @@
     </row>
     <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="str">
         <f>IFERROR(VLOOKUP(V1,Y2:AB250,4,0),"")</f>
         <v/>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="31"/>
+      <c r="H4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="24"/>
       <c r="Y4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="AA4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
@@ -3541,8 +3469,8 @@
       </c>
     </row>
     <row r="5" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3559,16 +3487,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="Y5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="AB5" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
@@ -3584,32 +3512,32 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
       <c r="Y6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="AB6" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="0"/>
@@ -3624,41 +3552,41 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="7" spans="2:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>765</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>766</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>762</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="E7" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="Y7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AA7" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="AB7" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="0"/>
@@ -3673,21 +3601,21 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="22" t="s">
+    <row r="8" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3696,16 +3624,16 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="Y8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="AB8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
@@ -3720,19 +3648,19 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>773</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+    <row r="9" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -3741,16 +3669,16 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="Y9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="AB9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="0"/>
@@ -3765,19 +3693,19 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35">
+    <row r="10" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>798</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="C10" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -3786,16 +3714,16 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="Y10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="AB10" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="0"/>
@@ -3810,15 +3738,15 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+    <row r="11" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -3827,16 +3755,16 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="Y11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="AB11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="0"/>
@@ -3851,15 +3779,15 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3868,16 +3796,16 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="Y12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AA12" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="AB12" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="0"/>
@@ -3893,34 +3821,34 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>765</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>800</v>
-      </c>
-      <c r="G13" s="38"/>
+      <c r="B13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>764</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>781</v>
+      </c>
+      <c r="G13" s="40"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Y13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AB13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="0"/>
@@ -3936,29 +3864,29 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="V14" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Y14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AA14" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="AB14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC14" s="4">
         <f t="shared" si="0"/>
@@ -3974,33 +3902,33 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="52">
-        <v>1</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>774</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="V15" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="AB15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC15" s="4">
         <f t="shared" si="0"/>
@@ -4017,19 +3945,19 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V16" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="AB16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC16" s="4">
         <f t="shared" si="0"/>
@@ -4046,28 +3974,28 @@
     </row>
     <row r="17" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Q17" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="V17" s="11">
         <v>1</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="AB17" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC17" s="4">
         <f t="shared" si="0"/>
@@ -4083,7 +4011,7 @@
       </c>
     </row>
     <row r="18" spans="6:31" x14ac:dyDescent="0.25">
-      <c r="F18" s="33"/>
+      <c r="F18" s="26"/>
       <c r="Q18" s="4" t="str">
         <f>IF(V17=2,"True","")</f>
         <v/>
@@ -4097,16 +4025,16 @@
         <v/>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA18" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="AB18" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC18" s="4">
         <f t="shared" si="0"/>
@@ -4123,16 +4051,16 @@
     </row>
     <row r="19" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA19" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AA19" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="AB19" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC19" s="4">
         <f t="shared" si="0"/>
@@ -4149,16 +4077,16 @@
     </row>
     <row r="20" spans="6:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AA20" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="AB20" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC20" s="4">
         <f t="shared" si="0"/>
@@ -4175,16 +4103,16 @@
     </row>
     <row r="21" spans="6:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA21" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AA21" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="AB21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC21" s="4">
         <f t="shared" si="0"/>
@@ -4201,16 +4129,16 @@
     </row>
     <row r="22" spans="6:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AA22" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="AB22" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC22" s="4">
         <f t="shared" si="0"/>
@@ -4227,16 +4155,16 @@
     </row>
     <row r="23" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA23" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AA23" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="AB23" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC23" s="4">
         <f t="shared" si="0"/>
@@ -4253,16 +4181,16 @@
     </row>
     <row r="24" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA24" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AA24" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="AB24" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC24" s="4">
         <f t="shared" si="0"/>
@@ -4279,16 +4207,16 @@
     </row>
     <row r="25" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z25" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA25" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AA25" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="AB25" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC25" s="4">
         <f t="shared" si="0"/>
@@ -4305,16 +4233,16 @@
     </row>
     <row r="26" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA26" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AA26" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="AB26" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC26" s="4">
         <f t="shared" si="0"/>
@@ -4331,16 +4259,16 @@
     </row>
     <row r="27" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA27" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AA27" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB27" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC27" s="4">
         <f t="shared" si="0"/>
@@ -4357,16 +4285,16 @@
     </row>
     <row r="28" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z28" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA28" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AA28" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="AB28" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC28" s="4">
         <f t="shared" si="0"/>
@@ -4383,16 +4311,16 @@
     </row>
     <row r="29" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z29" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AA29" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="AB29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC29" s="4">
         <f t="shared" si="0"/>
@@ -4409,16 +4337,16 @@
     </row>
     <row r="30" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z30" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA30" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AA30" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="AB30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC30" s="4">
         <f t="shared" si="0"/>
@@ -4435,16 +4363,16 @@
     </row>
     <row r="31" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA31" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AA31" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="AB31" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC31" s="4">
         <f t="shared" si="0"/>
@@ -4461,16 +4389,16 @@
     </row>
     <row r="32" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA32" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AA32" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="AB32" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC32" s="4">
         <f t="shared" si="0"/>
@@ -4487,16 +4415,16 @@
     </row>
     <row r="33" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z33" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA33" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AA33" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="AB33" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC33" s="4">
         <f t="shared" si="0"/>
@@ -4513,16 +4441,16 @@
     </row>
     <row r="34" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA34" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AA34" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="AB34" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC34" s="4">
         <f t="shared" si="0"/>
@@ -4539,16 +4467,16 @@
     </row>
     <row r="35" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA35" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AA35" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="AB35" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC35" s="4">
         <f t="shared" si="0"/>
@@ -4565,16 +4493,16 @@
     </row>
     <row r="36" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA36" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AA36" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="AB36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC36" s="4">
         <f t="shared" si="0"/>
@@ -4591,16 +4519,16 @@
     </row>
     <row r="37" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA37" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AA37" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="AB37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC37" s="4">
         <f t="shared" si="0"/>
@@ -4617,16 +4545,16 @@
     </row>
     <row r="38" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA38" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA38" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="AB38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC38" s="4">
         <f t="shared" si="0"/>
@@ -4643,16 +4571,16 @@
     </row>
     <row r="39" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA39" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AA39" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="AB39" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC39" s="4">
         <f t="shared" si="0"/>
@@ -4669,16 +4597,16 @@
     </row>
     <row r="40" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA40" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AA40" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="AB40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC40" s="4">
         <f t="shared" si="0"/>
@@ -4695,16 +4623,16 @@
     </row>
     <row r="41" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA41" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AA41" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="AB41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC41" s="4">
         <f t="shared" si="0"/>
@@ -4721,16 +4649,16 @@
     </row>
     <row r="42" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y42" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z42" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="Z42" s="4" t="s">
+      <c r="AA42" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AA42" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="AB42" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC42" s="4">
         <f t="shared" si="0"/>
@@ -4747,16 +4675,16 @@
     </row>
     <row r="43" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z43" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA43" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AA43" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="AB43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC43" s="4">
         <f t="shared" si="0"/>
@@ -4773,16 +4701,16 @@
     </row>
     <row r="44" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z44" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA44" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AA44" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="AB44" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC44" s="4">
         <f t="shared" si="0"/>
@@ -4799,16 +4727,16 @@
     </row>
     <row r="45" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y45" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z45" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA45" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AA45" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="AB45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC45" s="4">
         <f t="shared" si="0"/>
@@ -4825,16 +4753,16 @@
     </row>
     <row r="46" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z46" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA46" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AA46" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="AB46" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC46" s="4">
         <f t="shared" si="0"/>
@@ -4851,16 +4779,16 @@
     </row>
     <row r="47" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z47" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA47" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AA47" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="AB47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC47" s="4">
         <f t="shared" si="0"/>
@@ -4877,16 +4805,16 @@
     </row>
     <row r="48" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA48" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="AA48" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="AB48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC48" s="4">
         <f t="shared" si="0"/>
@@ -4903,16 +4831,16 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z49" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA49" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="AA49" s="4" t="s">
+      <c r="AB49" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="AB49" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="AC49" s="4">
         <f t="shared" si="0"/>
@@ -4929,16 +4857,16 @@
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z50" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA50" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AA50" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="AB50" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC50" s="4">
         <f t="shared" si="0"/>
@@ -4955,16 +4883,16 @@
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y51" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z51" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="Z51" s="4" t="s">
+      <c r="AA51" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AA51" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="AB51" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC51" s="4">
         <f t="shared" si="0"/>
@@ -4981,16 +4909,16 @@
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z52" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA52" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AA52" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="AB52" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC52" s="4">
         <f t="shared" si="0"/>
@@ -5007,16 +4935,16 @@
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z53" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA53" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="AA53" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="AB53" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC53" s="4">
         <f t="shared" si="0"/>
@@ -5033,16 +4961,16 @@
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z54" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA54" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AA54" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="AB54" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC54" s="4">
         <f t="shared" si="0"/>
@@ -5083,16 +5011,16 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z57" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA57" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AA57" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="AB57" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC57" s="4">
         <f t="shared" si="0"/>
@@ -5156,16 +5084,16 @@
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y58" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z58" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA58" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AA58" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="AB58" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC58" s="4">
         <f t="shared" si="0"/>
@@ -5182,16 +5110,16 @@
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z59" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA59" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AA59" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="AB59" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC59" s="4">
         <f t="shared" si="0"/>
@@ -5208,16 +5136,16 @@
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y60" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z60" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA60" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AA60" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="AB60" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC60" s="4">
         <f t="shared" si="0"/>
@@ -5234,16 +5162,16 @@
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA61" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AA61" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="AB61" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC61" s="4">
         <f t="shared" si="0"/>
@@ -5260,16 +5188,16 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z62" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA62" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="AA62" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="AB62" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC62" s="4">
         <f t="shared" si="0"/>
@@ -5286,16 +5214,16 @@
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y63" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z63" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA63" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AA63" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="AB63" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC63" s="4">
         <f t="shared" si="0"/>
@@ -5312,16 +5240,16 @@
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y64" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z64" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA64" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AA64" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="AB64" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC64" s="4">
         <f t="shared" si="0"/>
@@ -5338,16 +5266,16 @@
     </row>
     <row r="65" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y65" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z65" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA65" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AA65" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="AB65" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC65" s="4">
         <f t="shared" si="0"/>
@@ -5364,16 +5292,16 @@
     </row>
     <row r="66" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y66" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z66" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA66" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="AA66" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="AB66" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC66" s="4">
         <f t="shared" si="0"/>
@@ -5390,16 +5318,16 @@
     </row>
     <row r="67" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y67" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z67" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA67" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="AA67" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="AB67" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC67" s="4">
         <f t="shared" si="0"/>
@@ -5416,16 +5344,16 @@
     </row>
     <row r="68" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z68" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA68" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AA68" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="AB68" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC68" s="4">
         <f t="shared" ref="AC68:AC131" si="1">--ISNUMBER(IFERROR(SEARCH($V$1,Y68,1),""))</f>
@@ -5442,16 +5370,16 @@
     </row>
     <row r="69" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y69" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z69" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA69" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="AA69" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="AB69" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC69" s="4">
         <f t="shared" si="1"/>
@@ -5468,16 +5396,16 @@
     </row>
     <row r="70" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y70" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z70" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA70" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AA70" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="AB70" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC70" s="4">
         <f t="shared" si="1"/>
@@ -5494,16 +5422,16 @@
     </row>
     <row r="71" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z71" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA71" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="AA71" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="AB71" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC71" s="4">
         <f t="shared" si="1"/>
@@ -5520,16 +5448,16 @@
     </row>
     <row r="72" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y72" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z72" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA72" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="AA72" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="AB72" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC72" s="4">
         <f t="shared" si="1"/>
@@ -5546,16 +5474,16 @@
     </row>
     <row r="73" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y73" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z73" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA73" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="AA73" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="AB73" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC73" s="4">
         <f t="shared" si="1"/>
@@ -5572,16 +5500,16 @@
     </row>
     <row r="74" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y74" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z74" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA74" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AA74" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="AB74" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC74" s="4">
         <f t="shared" si="1"/>
@@ -5598,16 +5526,16 @@
     </row>
     <row r="75" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z75" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA75" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="AA75" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="AB75" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC75" s="4">
         <f t="shared" si="1"/>
@@ -5624,16 +5552,16 @@
     </row>
     <row r="76" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z76" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA76" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AA76" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="AB76" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC76" s="4">
         <f t="shared" si="1"/>
@@ -5650,16 +5578,16 @@
     </row>
     <row r="77" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y77" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z77" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA77" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="AA77" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="AB77" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC77" s="4">
         <f t="shared" si="1"/>
@@ -5676,16 +5604,16 @@
     </row>
     <row r="78" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y78" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z78" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA78" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="AA78" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="AB78" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC78" s="4">
         <f t="shared" si="1"/>
@@ -5702,16 +5630,16 @@
     </row>
     <row r="79" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y79" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z79" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA79" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AA79" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="AB79" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC79" s="4">
         <f t="shared" si="1"/>
@@ -5728,16 +5656,16 @@
     </row>
     <row r="80" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y80" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z80" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA80" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AA80" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="AB80" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC80" s="4">
         <f t="shared" si="1"/>
@@ -5754,16 +5682,16 @@
     </row>
     <row r="81" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y81" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z81" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA81" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AA81" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="AB81" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC81" s="4">
         <f t="shared" si="1"/>
@@ -5780,16 +5708,16 @@
     </row>
     <row r="82" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y82" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z82" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA82" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AA82" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="AB82" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC82" s="4">
         <f t="shared" si="1"/>
@@ -5806,16 +5734,16 @@
     </row>
     <row r="83" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y83" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z83" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA83" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="AA83" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="AB83" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC83" s="4">
         <f t="shared" si="1"/>
@@ -5832,16 +5760,16 @@
     </row>
     <row r="84" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y84" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z84" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA84" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AA84" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="AB84" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC84" s="4">
         <f t="shared" si="1"/>
@@ -5858,16 +5786,16 @@
     </row>
     <row r="85" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y85" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z85" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA85" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="AA85" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="AB85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC85" s="4">
         <f t="shared" si="1"/>
@@ -5884,16 +5812,16 @@
     </row>
     <row r="86" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y86" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z86" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA86" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="AA86" s="4" t="s">
+      <c r="AB86" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="AB86" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="AC86" s="4">
         <f t="shared" si="1"/>
@@ -5910,16 +5838,16 @@
     </row>
     <row r="87" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y87" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z87" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA87" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="AA87" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="AB87" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC87" s="4">
         <f t="shared" si="1"/>
@@ -5936,16 +5864,16 @@
     </row>
     <row r="88" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y88" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z88" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA88" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="AA88" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="AB88" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC88" s="4">
         <f t="shared" si="1"/>
@@ -5962,16 +5890,16 @@
     </row>
     <row r="89" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z89" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA89" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="AA89" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="AB89" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC89" s="4">
         <f t="shared" si="1"/>
@@ -5988,16 +5916,16 @@
     </row>
     <row r="90" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y90" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z90" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA90" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="AA90" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="AB90" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC90" s="4">
         <f t="shared" si="1"/>
@@ -6014,16 +5942,16 @@
     </row>
     <row r="91" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y91" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA91" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AA91" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="AB91" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC91" s="4">
         <f t="shared" si="1"/>
@@ -6040,16 +5968,16 @@
     </row>
     <row r="92" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z92" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA92" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AA92" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="AB92" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC92" s="4">
         <f t="shared" si="1"/>
@@ -6066,16 +5994,16 @@
     </row>
     <row r="93" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y93" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z93" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA93" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AA93" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="AB93" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC93" s="4">
         <f t="shared" si="1"/>
@@ -6092,16 +6020,16 @@
     </row>
     <row r="94" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y94" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z94" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA94" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="AA94" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="AB94" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC94" s="4">
         <f t="shared" si="1"/>
@@ -6118,16 +6046,16 @@
     </row>
     <row r="95" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y95" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z95" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="Z95" s="4" t="s">
+      <c r="AA95" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AA95" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="AB95" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC95" s="4">
         <f t="shared" si="1"/>
@@ -6144,16 +6072,16 @@
     </row>
     <row r="96" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y96" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z96" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA96" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AA96" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="AB96" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC96" s="4">
         <f t="shared" si="1"/>
@@ -6170,16 +6098,16 @@
     </row>
     <row r="97" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y97" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z97" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA97" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AA97" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="AB97" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC97" s="4">
         <f t="shared" si="1"/>
@@ -6196,16 +6124,16 @@
     </row>
     <row r="98" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y98" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z98" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA98" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AA98" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="AB98" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC98" s="4">
         <f t="shared" si="1"/>
@@ -6222,16 +6150,16 @@
     </row>
     <row r="99" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y99" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z99" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="Z99" s="4" t="s">
+      <c r="AA99" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="AA99" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="AB99" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC99" s="4">
         <f t="shared" si="1"/>
@@ -6248,16 +6176,16 @@
     </row>
     <row r="100" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y100" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z100" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA100" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="AA100" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="AB100" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC100" s="4">
         <f t="shared" si="1"/>
@@ -6274,16 +6202,16 @@
     </row>
     <row r="101" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y101" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z101" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA101" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="AA101" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="AB101" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC101" s="4">
         <f t="shared" si="1"/>
@@ -6300,16 +6228,16 @@
     </row>
     <row r="102" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y102" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA102" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="AA102" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="AB102" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC102" s="4">
         <f t="shared" si="1"/>
@@ -6326,16 +6254,16 @@
     </row>
     <row r="103" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y103" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z103" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA103" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="AA103" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="AB103" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC103" s="4">
         <f t="shared" si="1"/>
@@ -6352,16 +6280,16 @@
     </row>
     <row r="104" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y104" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z104" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA104" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="AA104" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="AB104" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC104" s="4">
         <f t="shared" si="1"/>
@@ -6378,16 +6306,16 @@
     </row>
     <row r="105" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y105" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z105" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA105" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="AA105" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="AB105" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC105" s="4">
         <f t="shared" si="1"/>
@@ -6404,16 +6332,16 @@
     </row>
     <row r="106" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y106" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z106" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA106" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="AA106" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="AB106" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC106" s="4">
         <f t="shared" si="1"/>
@@ -6430,16 +6358,16 @@
     </row>
     <row r="107" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y107" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z107" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA107" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="AA107" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="AB107" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC107" s="4">
         <f t="shared" si="1"/>
@@ -6456,16 +6384,16 @@
     </row>
     <row r="108" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y108" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z108" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA108" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="AA108" s="4" t="s">
+      <c r="AB108" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="AB108" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="AC108" s="4">
         <f t="shared" si="1"/>
@@ -6482,16 +6410,16 @@
     </row>
     <row r="109" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y109" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z109" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA109" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="AA109" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="AB109" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC109" s="4">
         <f t="shared" si="1"/>
@@ -6508,16 +6436,16 @@
     </row>
     <row r="110" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y110" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z110" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA110" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="AA110" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="AB110" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC110" s="4">
         <f t="shared" si="1"/>
@@ -6534,16 +6462,16 @@
     </row>
     <row r="111" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y111" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z111" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA111" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AA111" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="AB111" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC111" s="4">
         <f t="shared" si="1"/>
@@ -6560,16 +6488,16 @@
     </row>
     <row r="112" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y112" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z112" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA112" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="AA112" s="4" t="s">
-        <v>426</v>
-      </c>
       <c r="AB112" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC112" s="4">
         <f t="shared" si="1"/>
@@ -6586,16 +6514,16 @@
     </row>
     <row r="113" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y113" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z113" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA113" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="AA113" s="4" t="s">
-        <v>428</v>
-      </c>
       <c r="AB113" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC113" s="4">
         <f t="shared" si="1"/>
@@ -6612,16 +6540,16 @@
     </row>
     <row r="114" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y114" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z114" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA114" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="AA114" s="4" t="s">
-        <v>430</v>
-      </c>
       <c r="AB114" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC114" s="4">
         <f t="shared" si="1"/>
@@ -6638,16 +6566,16 @@
     </row>
     <row r="115" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y115" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z115" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA115" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AA115" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AB115" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC115" s="4">
         <f t="shared" si="1"/>
@@ -6664,16 +6592,16 @@
     </row>
     <row r="116" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y116" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z116" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA116" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="AA116" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="AB116" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC116" s="4">
         <f t="shared" si="1"/>
@@ -6690,16 +6618,16 @@
     </row>
     <row r="117" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y117" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z117" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA117" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="AA117" s="4" t="s">
-        <v>436</v>
-      </c>
       <c r="AB117" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC117" s="4">
         <f t="shared" si="1"/>
@@ -6716,16 +6644,16 @@
     </row>
     <row r="118" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y118" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z118" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA118" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="AA118" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="AB118" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC118" s="4">
         <f t="shared" si="1"/>
@@ -6742,16 +6670,16 @@
     </row>
     <row r="119" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y119" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z119" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA119" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AA119" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="AB119" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC119" s="4">
         <f t="shared" si="1"/>
@@ -6768,16 +6696,16 @@
     </row>
     <row r="120" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y120" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z120" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA120" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="AA120" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="AB120" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC120" s="4">
         <f t="shared" si="1"/>
@@ -6794,16 +6722,16 @@
     </row>
     <row r="121" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y121" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z121" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA121" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="AA121" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="AB121" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC121" s="4">
         <f t="shared" si="1"/>
@@ -6820,16 +6748,16 @@
     </row>
     <row r="122" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y122" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z122" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA122" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AA122" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="AB122" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC122" s="4">
         <f t="shared" si="1"/>
@@ -6846,16 +6774,16 @@
     </row>
     <row r="123" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y123" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z123" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA123" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="AA123" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="AB123" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC123" s="4">
         <f t="shared" si="1"/>
@@ -6872,16 +6800,16 @@
     </row>
     <row r="124" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y124" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z124" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA124" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="AA124" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="AB124" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC124" s="4">
         <f t="shared" si="1"/>
@@ -6898,16 +6826,16 @@
     </row>
     <row r="125" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y125" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z125" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA125" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AA125" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="AB125" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC125" s="4">
         <f t="shared" si="1"/>
@@ -6924,16 +6852,16 @@
     </row>
     <row r="126" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y126" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z126" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA126" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="AA126" s="4" t="s">
-        <v>454</v>
-      </c>
       <c r="AB126" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC126" s="4">
         <f t="shared" si="1"/>
@@ -6950,16 +6878,16 @@
     </row>
     <row r="127" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y127" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z127" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA127" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="AA127" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="AB127" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC127" s="4">
         <f t="shared" si="1"/>
@@ -6976,16 +6904,16 @@
     </row>
     <row r="128" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z128" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA128" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="AA128" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="AB128" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC128" s="4">
         <f t="shared" si="1"/>
@@ -7002,16 +6930,16 @@
     </row>
     <row r="129" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y129" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z129" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA129" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="AA129" s="4" t="s">
-        <v>460</v>
-      </c>
       <c r="AB129" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC129" s="4">
         <f t="shared" si="1"/>
@@ -7028,16 +6956,16 @@
     </row>
     <row r="130" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y130" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z130" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA130" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="AA130" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="AB130" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC130" s="4">
         <f t="shared" si="1"/>
@@ -7054,16 +6982,16 @@
     </row>
     <row r="131" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y131" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z131" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA131" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="AA131" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="AB131" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC131" s="4">
         <f t="shared" si="1"/>
@@ -7080,16 +7008,16 @@
     </row>
     <row r="132" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y132" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z132" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA132" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AA132" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="AB132" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC132" s="4">
         <f t="shared" ref="AC132:AC195" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y132,1),""))</f>
@@ -7106,16 +7034,16 @@
     </row>
     <row r="133" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y133" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z133" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA133" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="AA133" s="4" t="s">
-        <v>468</v>
-      </c>
       <c r="AB133" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC133" s="4">
         <f t="shared" si="2"/>
@@ -7132,16 +7060,16 @@
     </row>
     <row r="134" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y134" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z134" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA134" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="AA134" s="4" t="s">
-        <v>470</v>
-      </c>
       <c r="AB134" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC134" s="4">
         <f t="shared" si="2"/>
@@ -7158,16 +7086,16 @@
     </row>
     <row r="135" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y135" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z135" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA135" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AA135" s="4" t="s">
-        <v>472</v>
-      </c>
       <c r="AB135" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC135" s="4">
         <f t="shared" si="2"/>
@@ -7184,16 +7112,16 @@
     </row>
     <row r="136" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y136" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z136" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA136" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="AA136" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="AB136" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC136" s="4">
         <f t="shared" si="2"/>
@@ -7210,16 +7138,16 @@
     </row>
     <row r="137" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y137" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z137" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA137" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="AA137" s="4" t="s">
-        <v>476</v>
-      </c>
       <c r="AB137" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC137" s="4">
         <f t="shared" si="2"/>
@@ -7236,16 +7164,16 @@
     </row>
     <row r="138" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y138" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z138" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA138" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="AA138" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="AB138" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC138" s="4">
         <f t="shared" si="2"/>
@@ -7262,16 +7190,16 @@
     </row>
     <row r="139" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y139" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z139" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA139" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="AA139" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="AB139" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC139" s="4">
         <f t="shared" si="2"/>
@@ -7288,16 +7216,16 @@
     </row>
     <row r="140" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y140" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z140" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA140" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="AA140" s="4" t="s">
-        <v>482</v>
-      </c>
       <c r="AB140" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC140" s="4">
         <f t="shared" si="2"/>
@@ -7314,16 +7242,16 @@
     </row>
     <row r="141" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y141" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z141" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA141" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="AA141" s="4" t="s">
-        <v>484</v>
-      </c>
       <c r="AB141" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC141" s="4">
         <f t="shared" si="2"/>
@@ -7340,16 +7268,16 @@
     </row>
     <row r="142" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z142" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA142" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="AA142" s="4" t="s">
-        <v>486</v>
-      </c>
       <c r="AB142" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC142" s="4">
         <f t="shared" si="2"/>
@@ -7366,16 +7294,16 @@
     </row>
     <row r="143" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y143" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z143" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA143" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AA143" s="4" t="s">
-        <v>488</v>
-      </c>
       <c r="AB143" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC143" s="4">
         <f t="shared" si="2"/>
@@ -7392,16 +7320,16 @@
     </row>
     <row r="144" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y144" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z144" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA144" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AA144" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="AB144" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC144" s="4">
         <f t="shared" si="2"/>
@@ -7418,16 +7346,16 @@
     </row>
     <row r="145" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z145" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA145" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="AA145" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="AB145" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC145" s="4">
         <f t="shared" si="2"/>
@@ -7444,16 +7372,16 @@
     </row>
     <row r="146" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y146" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z146" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA146" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="AA146" s="4" t="s">
-        <v>494</v>
-      </c>
       <c r="AB146" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC146" s="4">
         <f t="shared" si="2"/>
@@ -7470,16 +7398,16 @@
     </row>
     <row r="147" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y147" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z147" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA147" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="AA147" s="4" t="s">
-        <v>496</v>
-      </c>
       <c r="AB147" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC147" s="4">
         <f t="shared" si="2"/>
@@ -7496,16 +7424,16 @@
     </row>
     <row r="148" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y148" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z148" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA148" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="AA148" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="AB148" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC148" s="4">
         <f t="shared" si="2"/>
@@ -7522,16 +7450,16 @@
     </row>
     <row r="149" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y149" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z149" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA149" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="AA149" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="AB149" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC149" s="4">
         <f t="shared" si="2"/>
@@ -7548,16 +7476,16 @@
     </row>
     <row r="150" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y150" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z150" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA150" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="AA150" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="AB150" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC150" s="4">
         <f t="shared" si="2"/>
@@ -7574,16 +7502,16 @@
     </row>
     <row r="151" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y151" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z151" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA151" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="AA151" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="AB151" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC151" s="4">
         <f t="shared" si="2"/>
@@ -7600,16 +7528,16 @@
     </row>
     <row r="152" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y152" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z152" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA152" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AA152" s="4" t="s">
-        <v>506</v>
-      </c>
       <c r="AB152" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC152" s="4">
         <f t="shared" si="2"/>
@@ -7626,16 +7554,16 @@
     </row>
     <row r="153" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y153" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z153" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA153" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="AA153" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="AB153" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC153" s="4">
         <f t="shared" si="2"/>
@@ -7652,16 +7580,16 @@
     </row>
     <row r="154" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y154" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z154" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA154" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="AA154" s="4" t="s">
-        <v>510</v>
-      </c>
       <c r="AB154" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC154" s="4">
         <f t="shared" si="2"/>
@@ -7678,16 +7606,16 @@
     </row>
     <row r="155" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y155" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z155" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="Z155" s="4" t="s">
+      <c r="AA155" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="AA155" s="4" t="s">
-        <v>513</v>
-      </c>
       <c r="AB155" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC155" s="4">
         <f t="shared" si="2"/>
@@ -7704,16 +7632,16 @@
     </row>
     <row r="156" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y156" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z156" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA156" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="AA156" s="4" t="s">
-        <v>515</v>
-      </c>
       <c r="AB156" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC156" s="4">
         <f t="shared" si="2"/>
@@ -7730,16 +7658,16 @@
     </row>
     <row r="157" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y157" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z157" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA157" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="AA157" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="AB157" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC157" s="4">
         <f t="shared" si="2"/>
@@ -7756,16 +7684,16 @@
     </row>
     <row r="158" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y158" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z158" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA158" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="AA158" s="4" t="s">
-        <v>519</v>
-      </c>
       <c r="AB158" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC158" s="4">
         <f t="shared" si="2"/>
@@ -7782,16 +7710,16 @@
     </row>
     <row r="159" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y159" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z159" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="Z159" s="4" t="s">
+      <c r="AA159" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="AA159" s="4" t="s">
-        <v>522</v>
-      </c>
       <c r="AB159" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC159" s="4">
         <f t="shared" si="2"/>
@@ -7808,16 +7736,16 @@
     </row>
     <row r="160" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y160" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z160" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA160" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="AA160" s="4" t="s">
-        <v>524</v>
-      </c>
       <c r="AB160" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC160" s="4">
         <f t="shared" si="2"/>
@@ -7834,16 +7762,16 @@
     </row>
     <row r="161" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y161" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z161" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Z161" s="4" t="s">
+      <c r="AA161" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AA161" s="4" t="s">
+      <c r="AB161" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="AB161" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="AC161" s="4">
         <f t="shared" si="2"/>
@@ -7860,16 +7788,16 @@
     </row>
     <row r="162" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y162" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z162" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="Z162" s="4" t="s">
+      <c r="AA162" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="AA162" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="AB162" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC162" s="4">
         <f t="shared" si="2"/>
@@ -7886,16 +7814,16 @@
     </row>
     <row r="163" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y163" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z163" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="Z163" s="4" t="s">
+      <c r="AA163" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="AA163" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="AB163" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC163" s="4">
         <f t="shared" si="2"/>
@@ -7912,16 +7840,16 @@
     </row>
     <row r="164" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y164" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z164" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="Z164" s="4" t="s">
+      <c r="AA164" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="AA164" s="4" t="s">
-        <v>537</v>
-      </c>
       <c r="AB164" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC164" s="4">
         <f t="shared" si="2"/>
@@ -7938,16 +7866,16 @@
     </row>
     <row r="165" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y165" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z165" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="Z165" s="4" t="s">
+      <c r="AA165" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="AA165" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="AB165" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC165" s="4">
         <f t="shared" si="2"/>
@@ -7964,16 +7892,16 @@
     </row>
     <row r="166" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y166" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z166" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="Z166" s="4" t="s">
+      <c r="AA166" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="AA166" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="AB166" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC166" s="4">
         <f t="shared" si="2"/>
@@ -7990,16 +7918,16 @@
     </row>
     <row r="167" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y167" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z167" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="Z167" s="4" t="s">
+      <c r="AA167" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="AA167" s="4" t="s">
-        <v>546</v>
-      </c>
       <c r="AB167" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC167" s="4">
         <f t="shared" si="2"/>
@@ -8016,16 +7944,16 @@
     </row>
     <row r="168" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y168" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z168" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="Z168" s="4" t="s">
+      <c r="AA168" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="AA168" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="AB168" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC168" s="4">
         <f t="shared" si="2"/>
@@ -8042,16 +7970,16 @@
     </row>
     <row r="169" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y169" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z169" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="Z169" s="4" t="s">
+      <c r="AA169" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="AA169" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="AB169" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC169" s="4">
         <f t="shared" si="2"/>
@@ -8068,16 +7996,16 @@
     </row>
     <row r="170" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y170" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z170" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="Z170" s="4" t="s">
+      <c r="AA170" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AA170" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="AB170" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC170" s="4">
         <f t="shared" si="2"/>
@@ -8094,16 +8022,16 @@
     </row>
     <row r="171" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y171" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z171" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="Z171" s="4" t="s">
+      <c r="AA171" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="AA171" s="4" t="s">
-        <v>558</v>
-      </c>
       <c r="AB171" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC171" s="4">
         <f t="shared" si="2"/>
@@ -8120,16 +8048,16 @@
     </row>
     <row r="172" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y172" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z172" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="Z172" s="4" t="s">
+      <c r="AA172" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="AA172" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="AB172" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC172" s="4">
         <f t="shared" si="2"/>
@@ -8146,16 +8074,16 @@
     </row>
     <row r="173" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y173" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z173" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="Z173" s="4" t="s">
+      <c r="AA173" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="AA173" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="AB173" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC173" s="4">
         <f t="shared" si="2"/>
@@ -8172,16 +8100,16 @@
     </row>
     <row r="174" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y174" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z174" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="Z174" s="4" t="s">
+      <c r="AA174" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="AA174" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="AB174" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC174" s="4">
         <f t="shared" si="2"/>
@@ -8198,16 +8126,16 @@
     </row>
     <row r="175" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y175" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z175" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="Z175" s="4" t="s">
+      <c r="AA175" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="AA175" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="AB175" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC175" s="4">
         <f t="shared" si="2"/>
@@ -8224,16 +8152,16 @@
     </row>
     <row r="176" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y176" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z176" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="Z176" s="4" t="s">
+      <c r="AA176" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="AA176" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="AB176" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC176" s="4">
         <f t="shared" si="2"/>
@@ -8250,16 +8178,16 @@
     </row>
     <row r="177" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y177" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z177" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="Z177" s="4" t="s">
+      <c r="AA177" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="AA177" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="AB177" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC177" s="4">
         <f t="shared" si="2"/>
@@ -8276,16 +8204,16 @@
     </row>
     <row r="178" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y178" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z178" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="Z178" s="4" t="s">
+      <c r="AA178" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="AA178" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="AB178" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC178" s="4">
         <f t="shared" si="2"/>
@@ -8302,16 +8230,16 @@
     </row>
     <row r="179" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y179" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z179" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="Z179" s="4" t="s">
+      <c r="AA179" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="AA179" s="4" t="s">
-        <v>582</v>
-      </c>
       <c r="AB179" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC179" s="4">
         <f t="shared" si="2"/>
@@ -8328,16 +8256,16 @@
     </row>
     <row r="180" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y180" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z180" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="Z180" s="4" t="s">
+      <c r="AA180" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="AA180" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="AB180" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC180" s="4">
         <f t="shared" si="2"/>
@@ -8354,16 +8282,16 @@
     </row>
     <row r="181" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y181" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z181" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="Z181" s="4" t="s">
+      <c r="AA181" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="AA181" s="4" t="s">
-        <v>588</v>
-      </c>
       <c r="AB181" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC181" s="4">
         <f t="shared" si="2"/>
@@ -8380,16 +8308,16 @@
     </row>
     <row r="182" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y182" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z182" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="Z182" s="4" t="s">
+      <c r="AA182" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="AA182" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="AB182" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC182" s="4">
         <f t="shared" si="2"/>
@@ -8406,16 +8334,16 @@
     </row>
     <row r="183" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y183" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z183" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="Z183" s="4" t="s">
+      <c r="AA183" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="AA183" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="AB183" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC183" s="4">
         <f t="shared" si="2"/>
@@ -8432,16 +8360,16 @@
     </row>
     <row r="184" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y184" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z184" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="Z184" s="4" t="s">
+      <c r="AA184" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AA184" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="AB184" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC184" s="4">
         <f t="shared" si="2"/>
@@ -8458,16 +8386,16 @@
     </row>
     <row r="185" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y185" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z185" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="Z185" s="4" t="s">
+      <c r="AA185" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="AA185" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="AB185" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC185" s="4">
         <f t="shared" si="2"/>
@@ -8484,16 +8412,16 @@
     </row>
     <row r="186" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y186" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z186" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="Z186" s="4" t="s">
+      <c r="AA186" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="AA186" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="AB186" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC186" s="4">
         <f t="shared" si="2"/>
@@ -8510,16 +8438,16 @@
     </row>
     <row r="187" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y187" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z187" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="Z187" s="4" t="s">
+      <c r="AA187" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="AA187" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="AB187" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC187" s="4">
         <f t="shared" si="2"/>
@@ -8536,16 +8464,16 @@
     </row>
     <row r="188" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y188" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z188" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="Z188" s="4" t="s">
+      <c r="AA188" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AA188" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="AB188" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC188" s="4">
         <f t="shared" si="2"/>
@@ -8562,16 +8490,16 @@
     </row>
     <row r="189" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y189" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z189" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="Z189" s="4" t="s">
+      <c r="AA189" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AA189" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="AB189" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC189" s="4">
         <f t="shared" si="2"/>
@@ -8588,16 +8516,16 @@
     </row>
     <row r="190" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y190" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z190" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="Z190" s="4" t="s">
+      <c r="AA190" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="AA190" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="AB190" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC190" s="4">
         <f t="shared" si="2"/>
@@ -8614,16 +8542,16 @@
     </row>
     <row r="191" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y191" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z191" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="Z191" s="4" t="s">
+      <c r="AA191" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="AA191" s="4" t="s">
-        <v>618</v>
-      </c>
       <c r="AB191" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC191" s="4">
         <f t="shared" si="2"/>
@@ -8640,16 +8568,16 @@
     </row>
     <row r="192" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y192" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z192" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="Z192" s="4" t="s">
+      <c r="AA192" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="AA192" s="4" t="s">
-        <v>621</v>
-      </c>
       <c r="AB192" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC192" s="4">
         <f t="shared" si="2"/>
@@ -8666,16 +8594,16 @@
     </row>
     <row r="193" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y193" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z193" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="Z193" s="4" t="s">
+      <c r="AA193" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="AA193" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="AB193" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC193" s="4">
         <f t="shared" si="2"/>
@@ -8692,16 +8620,16 @@
     </row>
     <row r="194" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y194" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z194" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="Z194" s="4" t="s">
+      <c r="AA194" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="AA194" s="4" t="s">
-        <v>627</v>
-      </c>
       <c r="AB194" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC194" s="4">
         <f t="shared" si="2"/>
@@ -8718,16 +8646,16 @@
     </row>
     <row r="195" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y195" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z195" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="Z195" s="4" t="s">
+      <c r="AA195" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="AA195" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="AB195" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC195" s="4">
         <f t="shared" si="2"/>
@@ -8744,16 +8672,16 @@
     </row>
     <row r="196" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y196" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z196" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="Z196" s="4" t="s">
+      <c r="AA196" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="AA196" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="AB196" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC196" s="4">
         <f t="shared" ref="AC196:AC250" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y196,1),""))</f>
@@ -8770,16 +8698,16 @@
     </row>
     <row r="197" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y197" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z197" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="Z197" s="4" t="s">
+      <c r="AA197" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="AA197" s="4" t="s">
-        <v>636</v>
-      </c>
       <c r="AB197" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC197" s="4">
         <f t="shared" si="3"/>
@@ -8796,16 +8724,16 @@
     </row>
     <row r="198" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y198" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z198" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="Z198" s="4" t="s">
+      <c r="AA198" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AA198" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="AB198" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC198" s="4">
         <f t="shared" si="3"/>
@@ -8822,16 +8750,16 @@
     </row>
     <row r="199" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y199" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z199" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="Z199" s="4" t="s">
+      <c r="AA199" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="AA199" s="4" t="s">
-        <v>642</v>
-      </c>
       <c r="AB199" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC199" s="4">
         <f t="shared" si="3"/>
@@ -8848,16 +8776,16 @@
     </row>
     <row r="200" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y200" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z200" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="Z200" s="4" t="s">
+      <c r="AA200" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AA200" s="4" t="s">
-        <v>645</v>
-      </c>
       <c r="AB200" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC200" s="4">
         <f t="shared" si="3"/>
@@ -8874,16 +8802,16 @@
     </row>
     <row r="201" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y201" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z201" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="Z201" s="4" t="s">
+      <c r="AA201" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="AA201" s="4" t="s">
-        <v>648</v>
-      </c>
       <c r="AB201" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC201" s="4">
         <f t="shared" si="3"/>
@@ -8900,16 +8828,16 @@
     </row>
     <row r="202" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y202" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z202" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="Z202" s="4" t="s">
+      <c r="AA202" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="AA202" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="AB202" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC202" s="4">
         <f t="shared" si="3"/>
@@ -8926,16 +8854,16 @@
     </row>
     <row r="203" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y203" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z203" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="Z203" s="4" t="s">
+      <c r="AA203" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="AA203" s="4" t="s">
-        <v>654</v>
-      </c>
       <c r="AB203" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC203" s="4">
         <f t="shared" si="3"/>
@@ -8952,16 +8880,16 @@
     </row>
     <row r="204" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y204" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z204" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="Z204" s="4" t="s">
+      <c r="AA204" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AA204" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="AB204" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC204" s="4">
         <f t="shared" si="3"/>
@@ -8978,16 +8906,16 @@
     </row>
     <row r="205" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y205" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z205" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="Z205" s="4" t="s">
+      <c r="AA205" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AA205" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="AB205" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC205" s="4">
         <f t="shared" si="3"/>
@@ -9004,16 +8932,16 @@
     </row>
     <row r="206" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y206" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z206" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="Z206" s="4" t="s">
+      <c r="AA206" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="AA206" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="AB206" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC206" s="4">
         <f t="shared" si="3"/>
@@ -9030,16 +8958,16 @@
     </row>
     <row r="207" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y207" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z207" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="Z207" s="4" t="s">
+      <c r="AA207" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="AA207" s="4" t="s">
-        <v>666</v>
-      </c>
       <c r="AB207" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC207" s="4">
         <f t="shared" si="3"/>
@@ -9056,16 +8984,16 @@
     </row>
     <row r="208" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y208" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z208" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="Z208" s="4" t="s">
+      <c r="AA208" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="AA208" s="4" t="s">
-        <v>669</v>
-      </c>
       <c r="AB208" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC208" s="4">
         <f t="shared" si="3"/>
@@ -9082,16 +9010,16 @@
     </row>
     <row r="209" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y209" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z209" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="Z209" s="4" t="s">
+      <c r="AA209" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="AA209" s="4" t="s">
-        <v>672</v>
-      </c>
       <c r="AB209" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC209" s="4">
         <f t="shared" si="3"/>
@@ -9108,16 +9036,16 @@
     </row>
     <row r="210" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y210" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z210" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="Z210" s="4" t="s">
+      <c r="AA210" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AA210" s="4" t="s">
-        <v>675</v>
-      </c>
       <c r="AB210" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC210" s="4">
         <f t="shared" si="3"/>
@@ -9134,16 +9062,16 @@
     </row>
     <row r="211" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y211" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z211" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="Z211" s="4" t="s">
+      <c r="AA211" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="AA211" s="4" t="s">
-        <v>678</v>
-      </c>
       <c r="AB211" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC211" s="4">
         <f t="shared" si="3"/>
@@ -9160,16 +9088,16 @@
     </row>
     <row r="212" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y212" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z212" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="Z212" s="4" t="s">
+      <c r="AA212" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AA212" s="4" t="s">
-        <v>681</v>
-      </c>
       <c r="AB212" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AC212" s="4">
         <f t="shared" si="3"/>
@@ -9186,16 +9114,16 @@
     </row>
     <row r="213" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y213" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z213" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA213" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="AA213" s="4" t="s">
+      <c r="AB213" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="AB213" s="4" t="s">
-        <v>684</v>
       </c>
       <c r="AC213" s="4">
         <f t="shared" si="3"/>
@@ -9212,16 +9140,16 @@
     </row>
     <row r="214" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y214" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z214" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA214" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AA214" s="4" t="s">
-        <v>686</v>
-      </c>
       <c r="AB214" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC214" s="4">
         <f t="shared" si="3"/>
@@ -9238,16 +9166,16 @@
     </row>
     <row r="215" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y215" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z215" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA215" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="AA215" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="AB215" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC215" s="4">
         <f t="shared" si="3"/>
@@ -9264,16 +9192,16 @@
     </row>
     <row r="216" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y216" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z216" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA216" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="AA216" s="4" t="s">
-        <v>690</v>
-      </c>
       <c r="AB216" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC216" s="4">
         <f t="shared" si="3"/>
@@ -9290,16 +9218,16 @@
     </row>
     <row r="217" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y217" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z217" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA217" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="AA217" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="AB217" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC217" s="4">
         <f t="shared" si="3"/>
@@ -9316,16 +9244,16 @@
     </row>
     <row r="218" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y218" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z218" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA218" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="AA218" s="4" t="s">
-        <v>694</v>
-      </c>
       <c r="AB218" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC218" s="4">
         <f t="shared" si="3"/>
@@ -9342,16 +9270,16 @@
     </row>
     <row r="219" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y219" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z219" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA219" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="AA219" s="4" t="s">
-        <v>696</v>
-      </c>
       <c r="AB219" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC219" s="4">
         <f t="shared" si="3"/>
@@ -9368,16 +9296,16 @@
     </row>
     <row r="220" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y220" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z220" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA220" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="AA220" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="AB220" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC220" s="4">
         <f t="shared" si="3"/>
@@ -9394,16 +9322,16 @@
     </row>
     <row r="221" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y221" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z221" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA221" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="AA221" s="4" t="s">
-        <v>700</v>
-      </c>
       <c r="AB221" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC221" s="4">
         <f t="shared" si="3"/>
@@ -9420,16 +9348,16 @@
     </row>
     <row r="222" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y222" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z222" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA222" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="AA222" s="4" t="s">
-        <v>702</v>
-      </c>
       <c r="AB222" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC222" s="4">
         <f t="shared" si="3"/>
@@ -9446,16 +9374,16 @@
     </row>
     <row r="223" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y223" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z223" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA223" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="AA223" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="AB223" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC223" s="4">
         <f t="shared" si="3"/>
@@ -9472,16 +9400,16 @@
     </row>
     <row r="224" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y224" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z224" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA224" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="AA224" s="4" t="s">
+      <c r="AB224" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="AB224" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="AC224" s="4">
         <f t="shared" si="3"/>
@@ -9498,16 +9426,16 @@
     </row>
     <row r="225" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y225" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z225" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA225" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="AA225" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="AB225" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC225" s="4">
         <f t="shared" si="3"/>
@@ -9524,16 +9452,16 @@
     </row>
     <row r="226" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y226" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z226" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA226" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="AA226" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="AB226" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC226" s="4">
         <f t="shared" si="3"/>
@@ -9550,16 +9478,16 @@
     </row>
     <row r="227" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y227" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="Z227" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="Z227" s="4" t="s">
+      <c r="AA227" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="AA227" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="AB227" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC227" s="4">
         <f t="shared" si="3"/>
@@ -9576,16 +9504,16 @@
     </row>
     <row r="228" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y228" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z228" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA228" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="AA228" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="AB228" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC228" s="4">
         <f t="shared" si="3"/>
@@ -9602,16 +9530,16 @@
     </row>
     <row r="229" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y229" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z229" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA229" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="AA229" s="4" t="s">
-        <v>718</v>
-      </c>
       <c r="AB229" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC229" s="4">
         <f t="shared" si="3"/>
@@ -9628,16 +9556,16 @@
     </row>
     <row r="230" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y230" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z230" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA230" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="AA230" s="4" t="s">
-        <v>720</v>
-      </c>
       <c r="AB230" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC230" s="4">
         <f t="shared" si="3"/>
@@ -9654,16 +9582,16 @@
     </row>
     <row r="231" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y231" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z231" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA231" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="AA231" s="4" t="s">
-        <v>722</v>
-      </c>
       <c r="AB231" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC231" s="4">
         <f t="shared" si="3"/>
@@ -9680,16 +9608,16 @@
     </row>
     <row r="232" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y232" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z232" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA232" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="AA232" s="4" t="s">
-        <v>724</v>
-      </c>
       <c r="AB232" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC232" s="4">
         <f t="shared" si="3"/>
@@ -9706,16 +9634,16 @@
     </row>
     <row r="233" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y233" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z233" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA233" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="AA233" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="AB233" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC233" s="4">
         <f t="shared" si="3"/>
@@ -9732,16 +9660,16 @@
     </row>
     <row r="234" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y234" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z234" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA234" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="AA234" s="4" t="s">
-        <v>728</v>
-      </c>
       <c r="AB234" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC234" s="4">
         <f t="shared" si="3"/>
@@ -9758,16 +9686,16 @@
     </row>
     <row r="235" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y235" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z235" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA235" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="AA235" s="4" t="s">
-        <v>730</v>
-      </c>
       <c r="AB235" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC235" s="4">
         <f t="shared" si="3"/>
@@ -9784,16 +9712,16 @@
     </row>
     <row r="236" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y236" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z236" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA236" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="AA236" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="AB236" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC236" s="4">
         <f t="shared" si="3"/>
@@ -9810,16 +9738,16 @@
     </row>
     <row r="237" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y237" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z237" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA237" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="AA237" s="4" t="s">
-        <v>734</v>
-      </c>
       <c r="AB237" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC237" s="4">
         <f t="shared" si="3"/>
@@ -9836,16 +9764,16 @@
     </row>
     <row r="238" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y238" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z238" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA238" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="AA238" s="4" t="s">
-        <v>736</v>
-      </c>
       <c r="AB238" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC238" s="4">
         <f t="shared" si="3"/>
@@ -9862,16 +9790,16 @@
     </row>
     <row r="239" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y239" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z239" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA239" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="AA239" s="4" t="s">
-        <v>738</v>
-      </c>
       <c r="AB239" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC239" s="4">
         <f t="shared" si="3"/>
@@ -9888,16 +9816,16 @@
     </row>
     <row r="240" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y240" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z240" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="Z240" s="4" t="s">
+      <c r="AA240" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="AA240" s="4" t="s">
-        <v>741</v>
-      </c>
       <c r="AB240" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC240" s="4">
         <f t="shared" si="3"/>
@@ -9914,16 +9842,16 @@
     </row>
     <row r="241" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y241" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z241" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA241" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AA241" s="4" t="s">
-        <v>743</v>
-      </c>
       <c r="AB241" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC241" s="4">
         <f t="shared" si="3"/>
@@ -9940,16 +9868,16 @@
     </row>
     <row r="242" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y242" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z242" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA242" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="AA242" s="4" t="s">
-        <v>745</v>
-      </c>
       <c r="AB242" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC242" s="4">
         <f t="shared" si="3"/>
@@ -9966,16 +9894,16 @@
     </row>
     <row r="243" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y243" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z243" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA243" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="AA243" s="4" t="s">
-        <v>747</v>
-      </c>
       <c r="AB243" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC243" s="4">
         <f t="shared" si="3"/>
@@ -9992,16 +9920,16 @@
     </row>
     <row r="244" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y244" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z244" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA244" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="AA244" s="4" t="s">
-        <v>749</v>
-      </c>
       <c r="AB244" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC244" s="4">
         <f t="shared" si="3"/>
@@ -10018,16 +9946,16 @@
     </row>
     <row r="245" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y245" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z245" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA245" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="AA245" s="4" t="s">
-        <v>751</v>
-      </c>
       <c r="AB245" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC245" s="4">
         <f t="shared" si="3"/>
@@ -10044,16 +9972,16 @@
     </row>
     <row r="246" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y246" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z246" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="AA246" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="AA246" s="4" t="s">
-        <v>753</v>
-      </c>
       <c r="AB246" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC246" s="4">
         <f t="shared" si="3"/>
@@ -10070,16 +9998,16 @@
     </row>
     <row r="247" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y247" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z247" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA247" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="AA247" s="4" t="s">
-        <v>755</v>
-      </c>
       <c r="AB247" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC247" s="4">
         <f t="shared" si="3"/>
@@ -10096,16 +10024,16 @@
     </row>
     <row r="248" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y248" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z248" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA248" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="AA248" s="4" t="s">
-        <v>757</v>
-      </c>
       <c r="AB248" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC248" s="4">
         <f t="shared" si="3"/>
@@ -10122,16 +10050,16 @@
     </row>
     <row r="249" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y249" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z249" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA249" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="AA249" s="4" t="s">
-        <v>759</v>
-      </c>
       <c r="AB249" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC249" s="4">
         <f t="shared" si="3"/>
@@ -10148,16 +10076,16 @@
     </row>
     <row r="250" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y250" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z250" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA250" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="AA250" s="4" t="s">
-        <v>761</v>
-      </c>
       <c r="AB250" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AC250" s="4">
         <f t="shared" si="3"/>
@@ -10173,7 +10101,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PVDL0C1ysPyvWA5e+0rjI6WUHRbz3jaHsApeSGUpku0WVpZeOLEtOOrXMXY62jl3D8S4fAEOzSS0l53A6vktqg==" saltValue="R9x8HS/3Pu2LodJa2YD6sQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zSJzjoiZJOVPfZRgbDYDcQ0cBUPd05bxcaapLZ9Wc38gFItrQEJXgTxvbiF/rAS8+7N0To7L3TsVqVj4WBHMNw==" saltValue="yUhXPW0noBM6wyEuZx5GTg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="13">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -10257,10 +10185,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:N15"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10268,14 +10196,8 @@
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="4" customWidth="1"/>
+    <col min="4" max="9" width="20.7109375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="4" hidden="1" customWidth="1"/>
@@ -10284,75 +10206,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-    </row>
-    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>770</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="B1" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="11" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+    <row r="3" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32" t="str">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="str">
         <f>Finance!V1</f>
         <v/>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="str">
+      <c r="E4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="str">
         <f>Finance!F4</f>
         <v/>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="32">
+      <c r="H4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25">
         <f>Finance!I4</f>
         <v>0</v>
       </c>
@@ -10368,138 +10290,288 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>784</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47" t="s">
+        <v>794</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
+        <v>782</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>783</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>776</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>777</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>778</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>779</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="41"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="N9" s="11" t="str">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="38" t="s">
+        <v>766</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="52"/>
+      <c r="N9" s="4" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="49">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="49">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="49">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="49">
+        <v>4</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>5</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>789</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="49">
+        <v>6</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="49">
+        <v>7</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>791</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="49">
+        <v>8</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>792</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>9</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="49">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="49">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="49">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QdWhi2T7aJ2us9B+XDDC/wHfWcwC1MY+KorLLctEYSysZ49jy1vAErCtnTbVrOVAZgvOmAVkZcLjt9og3qA3tw==" saltValue="zte0L/aMCCb9Qr9XhIisyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sQjFKU/DRhPQ7n654NYjYRMybZFx0CfRKR0x4NNjN3DjeVoQSuHngRNYyUBcwD1z+skGKUZKiF1RNn5KTGlMbw==" saltValue="hgS4WxcZd3SyB2ibqgdZQw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:K16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10509,381 +10581,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:Q51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="4" customWidth="1"/>
-    <col min="10" max="12" width="16.42578125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="18.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="43" width="9.140625" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>771</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="4" t="e">
-        <f>Finance!V2</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32" t="str">
-        <f>Finance!V1</f>
-        <v/>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="str">
-        <f>Finance!F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="32">
-        <f>Finance!I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>782</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>784</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>801</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="41" t="s">
-        <v>766</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>762</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U7k+usCdgMph2iOW6ga3ej3AHiy7ljvHvNwcldwyh1PqwkKEjSd/s6EQC/K8ksAz+apfREzBLtKMaSIKZNSVxw==" saltValue="LOo6jCoiN/9ni4RGD+jhOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E7:E8"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:H14" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N17"/>
   <sheetViews>
@@ -10896,12 +10593,7 @@
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="4" max="9" width="20.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="4" customWidth="1"/>
@@ -10912,74 +10604,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="45" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>770</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="B2" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="4" t="e">
         <f>Finance!V2</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32" t="str">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="str">
         <f>Finance!V1</f>
         <v/>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="str">
+      <c r="E4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="str">
         <f>Finance!F4</f>
         <v/>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="32">
+      <c r="H4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25">
         <f>Finance!I4</f>
         <v>0</v>
       </c>
@@ -10991,56 +10683,56 @@
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>783</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>788</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
-        <v>766</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>762</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>773</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>761</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="N9" s="4" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="36" t="s">
-        <v>767</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>789</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>790</v>
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -11048,87 +10740,87 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+        <v>777</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+        <v>778</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T6A1oqgEmONkUzRDjMX80FZoQYLKyL7mNekzPQ124Y8FVXQZYtsVBPz/vKqu761J4RpD4ho/xFCjTpf61lQzZg==" saltValue="KfMTOmCXgmd2Tf3RebmQyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0w5e2g2UJtfs7qybfgyafXTlDG3Y4D3W/2iIYC7YfWfVGgYmdB5ArK+ucLl4Y1LLy2kJUQuHNVHNx/HyGomnZQ==" saltValue="KtYkcpRSC2NGklxwQXbA8A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="D9:D10"/>
